--- a/news_data/2017_08.xlsx
+++ b/news_data/2017_08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,90 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>중국자본이 제주도에 투자…관광개발 사업 잇달아 중단</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 환경보전기여금 제도 도입 본격 추진</t>
+  </si>
+  <si>
+    <t>제주도 관광객 몰리는 성산, 돔베고기 맛집 ‘성산가든’</t>
+  </si>
+  <si>
+    <t>제주도, 관광객에게 '환경세' 받는 방안 추진한다</t>
+  </si>
+  <si>
+    <t>원희룡 지사 "제주도 관광도시 아닌 스마트 아일랜드 추구”</t>
+  </si>
+  <si>
+    <t>제주도 태교 마사지, ‘숲의스파’에서 지친 피로 풀기위한 관광코스 서비스 ...</t>
+  </si>
+  <si>
+    <t>이상순·이효리, 제주도 관광객에 호소 "사생활 침해 말아주길" [전문]</t>
+  </si>
+  <si>
+    <t>[포토]민동욱 엠씨넥스 대표, 스마트 DID로 제주도 관광산업 혁신 할 수 있어</t>
+  </si>
+  <si>
+    <t>일본 들렸다 제주도 가야할 판…10월 2일 황금연휴 기대감에 관광업계 '들썩'</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 여행, 다채로운 관광 명소와 함께 중문 흑돼지 맛보는 맛집 코...</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 관광진흥기금 융자 90개소 211억 확정</t>
+  </si>
+  <si>
+    <t>제주도문화관광해설사협회 창립 16주년 기념식</t>
+  </si>
+  <si>
+    <t>송하진 지사는 전북관광 활성화…산하기관은 제주도로</t>
+  </si>
+  <si>
+    <t>제주도, 싱가포르 개별관광객 유치 본격화</t>
+  </si>
+  <si>
+    <t>"관광객은 하루 2번만?" 제주도 장애인콜택시 횟수 제한에 반발한 장애인들</t>
+  </si>
+  <si>
+    <t>폭염에 관광객 몰려오는데 제주도 물부족에 제한급수 ‘비상’</t>
+  </si>
+  <si>
+    <t>[9월 제주도 가볼만한 곳] 아늑한 엄마 품같은 '동부지역 관광지 순환버스'</t>
+  </si>
+  <si>
+    <t>제주도, 일본 관광객 돌아오려나?</t>
+  </si>
+  <si>
+    <t>제주도 관광지 된 '효리네 민박집'...블로거+SNS, 인증 봇물</t>
+  </si>
+  <si>
+    <t>제주도 관광위장입국 중국인 불법체류자 검거</t>
+  </si>
+  <si>
+    <t>[9월 제주도 가볼만한 곳] 투박하고 야생적인 제주의 창밖 풍경 '서부지역 관...</t>
+  </si>
+  <si>
+    <t>[9월 제주도 가볼만한 곳] 예술과 관광을 동시에 음미...'저지리 마을' 버스체...</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문단지 관광 후 흑돼지 맛집탐방까지</t>
+  </si>
+  <si>
+    <t>제주도 관광기념품 공모전 당선작 발표</t>
+  </si>
+  <si>
+    <t>여름 휴가철 제주도 여행 필수코스는 서귀포, 중문 관광코스에 맛집 먹거리도...</t>
+  </si>
+  <si>
+    <t>제주도관광협회 말레이서 제주관광 홍보</t>
+  </si>
+  <si>
+    <t>제주도, 관광성수기 전기차 충전시설 점검…이용자불편 최소화</t>
+  </si>
+  <si>
+    <t>"유커 120만명 줄었다"...제주도 관광객 5.3% 뚝↓</t>
+  </si>
+  <si>
     <t>흑돼지 돈까스 ‘봉유’ 제주도 유명 관광지 맛집 속속 ‘오픈’</t>
   </si>
   <si>
@@ -31,13 +115,88 @@
     <t>제주도, 중국 관광객 빠졌지만 일본 관광객 3.9% 증가</t>
   </si>
   <si>
-    <t>흑돼지 돈까스 ‘봉유’ 제주도 유명 관광지 맛집 속속 ‘오픈’ - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-04 06:05 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 흑돼지 돈까스 ‘봉유’ 제주도 유명 관광지 맛집 속속 ‘오픈’ 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 흑돼지 돈까스 ‘봉유’ 제주도 유명 관광지 맛집 속속 ‘오픈’ 유지형 승인 2017.08.11 13:28 수정 2017.08.11 13:28 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × ▲ 제주 오설록 티뮤지엄에 이어 성산일출봉점 오픈 여름 휴가철이 한장인 가운데, 제주도는 지난해와 달리 중국인 관광객의 급감으로 국내 여행객들이 꾸준히 늘고 있다. 휴가철 중국 단체 관광객들로 인한 번잡함을 피할 수 있고 제주도는 국내 여행에 있어서는 자연 관광자원은 물론 유명 관광지 주변에 맛집이 즐비 하기 때문이다. 특히 제주도하면 떠오는 것이 흑돼지 요리라 할 수 있는데, 제주도 오설록 티뮤지엄 인근 흑돼지 돈까스 맛집으로 유명세를 타고 있는 봉유(봉YOU)가 서귀포시 성산읍 일출로 위치에 성산일출봉점 운영에 나서는 등 제주 유명관광지 중심으로 맛집 점포를 속속 오픈하고 있다. 봉유 관계자는 “오설록 티뮤지엄에 이어 성산일출봉까지 제주도 주요 관광지 중심으로 제주 고유의 맛을 전할 수 있게 되었다”며  “제주도에서만 느낄 수 있는 흑돼지와 제주 천연의 각종 해산물까지 신선한 재료를 기반으로 메뉴를 제공해 제주 관광지마다 맛집 전도사의 역할을 기대하고 있다. 이를 위해 추가적으로 가족동반(4인이상) 방문시 음료 커피 무제한 제공 행사까지 병행하고 있다”고 전했다. 현재 봉유 성산일출봉점은 자체 특제소스를 기반으로한 제주 흑돼지로 만든 돈까스가 베스트 메뉴로  흑돼지 야채볶음, 흑돼지 불짬봉, 전복나가사키짬뽕도 눈길을 끌고 있다. 현재 봉유는 돈까스 하나만을 고집해 메뉴 연구 및 개발을 진행해 방송에서도 제주도 오설록 맛집으로 소개된 바 있으며, 제주도 산지에서 공수해온 흑돼지를 비롯해 전복 및 각종 해산물을 이용한 다양한 음식을 맛볼 수 있다. 특히 싱싱한 생물을 바로 요리해 신선함과 맛에 대한 신뢰를 쌓아 가고 있다. 한편 봉유는 오설록 티뮤지엄, 성산일출봉점에 이어서 제주도 주요 관광지 중심으로 매장을 확대해 나간다는 방침이다. /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] 반도체도 '미국산'으로…반도체 도시 인천 불똥 튀나 [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] "아트센터인천 2단계, 잡화점식 대관장 전락 우려" [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 [잇츠브리핑] 광역시 최대 곡창지대 인천, 쌀 가격 폭락에 농심 철렁 기획특집 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [남극에서 온 편지] 9.작지만 큰 변화 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” [예술공간의 발견] 9. 인천의 독립예술영화관 [박창호 해양특위 위원장에 듣는다] “해양도시 인천, 100년 미래 먹거리 찾는다” [구도 인천] 구도의 기록자들…김노천 사진가·김은식 작가 [구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠레터]'딸 간수 잘하시라' 피해자 모친도 위협한 스토킹범 [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [카드뉴스]똑똑한 AR·VR 개항장 여행, '인천e지' 앱 하나면 끝 [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [잇츠레터]"윤 대통령 비속어 논란? 미국은 개의치 않아" [카드뉴스]인천시티투어 10월엔 '50% 할인' [카드뉴스]인천시티투어 10월엔 '50% 할인' 많이 본 뉴스 오늘 주간 월간 1"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 2용인~오산 고속도로 강행…화성시 '부글부글' 3[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 4[이슈 &amp; 이슈] 송도유원지 해결, 더 이상 미룰 수는 없다 5고양시 창릉천 제2의 호수공원 청신호...한준호 의원 2700억 환경부 통합하천 공모사업 1차 통과 6“드론 600대 탄천 밤하늘 수 놓는다”...성남시 6일 ‘드론 라이트 쇼’ 7[단독] 인천공항 '항공정비 MRO' 날개 편다…아틀라스항공 정비고, 1활주로 북측 결정 8[영종 차별의 섬에서 기회의 땅으로] 1. 인천의 밀라노·브로드웨이 표류…'기대 반 우려 반' 9“돼지열병 업무 폭증한 공무원에 파주시의원 과한 행감자료 요구” 10한국지엠 부평공장 '전기차 생산 유치' 기대감 1젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 2도자기의 모든 것, 여주도자기페스타 다음 달 1일 개최 3인천시 '인천 UAM전용공항 예정지' 정부 전달 4한국민속촌, 경기도민 대상 입장 할인 제공 5[잇츠GO] 아니 꽃게가 풍년(?)일세!…'소래질러!' 6"야외 테이블서 실컷 먹더니 도망…나이 먹고 왜 이러나" 7인천 노동자 평균 임금 369만원, 서울 455만원 대비 76% 수준 8경인고속도로 지하화 협약, 오늘 맺는다 9[구도 인천] 구도의 산증인들…채병용 코치·배수현 치어리더 10양주 회암사지 왕실축제, 어가행렬 주인공은 ‘시민’ 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3인력 '구멍' 경기소방본부에 정부 '설상가상' 감축 지시 4“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 5젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 6[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 7순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 8인천 남동공단 아닌 '남동산단'…주민들 '바로잡기' 민원 9한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 10송도 세브란스-배곧 서울대병원, 진검승부 '예고' 포토뉴스 [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' [포토] 4년여 만에 열린 '부평풍물대축제' [포토] '와이어 투 와이어 우승' 앞둔 SSG 랜더스…“기쁘지 아니한가” [포토] '인천 베이비&amp;키즈페어' 찾은 시민들 [포토] 돌아온 축제…인천이 들썩 [포토] 광명교육지원청 도덕초 현장점검 [포토] 단기 4355 개천절 기념' 제23회 하늘 열림 큰잔치' [포토] 2022 INK(Incheon K-POP Concert) 화려한 무대 [포토] "K팝도 인천e지" '제13회 INK(Incheon K-POP Concert) 콘서트' 성황 [포토] 인천 송도컨벤시아 '인천베이비&amp;키즈페어' 찾은 시민들 [포토] 4년여 만에 열린 '부평풍물대축제' 기획특집 기획 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” 2022.10.03 기획 [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 2022.10.03 인천에 온 이주민들 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 2022.09.29 기획 [남극에서 온 편지] 9.작지만 큰 변화 2022.09.29 기획 [새로운 희망 경기교육] 시흥 군자디지털과학고등학교 2022.09.29 특집 경기도일자리재단 '잡아바', 청년 희망플랫폼 자리매김 2022.09.29 인터뷰 [인터뷰] 박철민 연천군 고려인삼 영농법인 대표 “청정 연천서 계약재배…억대 농부된 비결” 2022.09.29 인터뷰 [인터뷰] 김현광 수원문화재단 대표 “시민 문화 향유 기회 확대할 것” 2022.09.29 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
-  </si>
-  <si>
-    <t>'관광농원 인·허가 받아주겠다' 개발업자에게 돈 받은 전직 제주도의원 구속 검색 2022-10-04 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR '관광농원 인·허가 받아주겠다' 개발업자에게 돈 받은 전직 제주도의원 구속 2017-08-16 15:22:18 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=온라인뉴스팀] 제주지검은 16일 개발업자에게 인·허가 등 민원을 해결해 주는 대가로 6000만원의 돈을 받은 전직 도의원 A(61)씨를 사기 및 알선수재 혐의로 구속했다고 밝혔다.A씨는 관광농원 개발업자에게 접근해 제주도로부터 상수도관 연결 허가를 받아 주겠다며 그 대가로 6000만원을 받은 혐의를 받고 있다.검찰은 A씨가 개발업자의 민원 해결을 위해 어떠한 영향력을 행사했고, 받은 돈을 어떻게 사용했는지 등에 대해 조사 중이다.[미디어펜=온라인뉴스팀] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
-  </si>
-  <si>
-    <t>제주도, 중국 관광객 빠졌지만 일본 관광객 3.9% 증가 검색 2022-10-04 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 제주도, 중국 관광객 빠졌지만 일본 관광객 3.9% 증가 2017-08-11 11:36:57 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=온라인뉴스팀]제주특별자치도는 올해 들어 지난 10일까지 제주를 찾은 일본인 관광객이 3만800명으로 지난해 같은 기간 2만9649명보다 3.9% 늘었다고 11일 밝혔다.일본인 관광객 수는 지난 2010년 18만7790명으로 사상 최고를 기록한 뒤 2011년 17만3700명으로 7.5% 줄었다. 2012년에 18만357명으로 증가했으나 2013년 12만8879명으로 28.5% 감소한 바 있다.이어 2014년 9만6519명, 2015년 5만9223명, 2016년 4만7997명으로 해마다 관광객 수가 줄어들었다.하지만 지난해 중국이 한류금지령과 한국 단체 관광 금지령을 내리면서 중국인 관광객이 대폭 줄었고, 이후 일본인 관광객이 점차 늘어나기 시작했다.제주도는 일본 관광시장 확대 노력이 열매를 맺는 것으로 보고, 다양한 마케팅 활동에 주력할 예정이다.[미디어펜=온라인뉴스팀] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
+    <t>제주도, 관광객 환경보전기여금 제도 도입 본격 추진 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 관광객 환경보전기여금 제도 도입 본격 추진 내년 4월까지 제도 도입 타당성 용역 실시 (제주=뉴스1) 오미란 기자					| 2017-08-28 18:53 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 제주도청 전경.© News1 제주도가 관광객을 대상으로 한 환경보전기여금 제도 도입을 본격 추진해 주목된다.도는 한국지방재정학회에 의뢰해 다음달부터 내년 4월까지 8개월 동안 '환경보전기여금 제도 도입 타당성 조사 용역'을 실시한다고 28일 밝혔다.이번 용역은 지난 1월 '제주 자연가치보전 관광문화품격향상 워킹그룹'이 발표한 권고안에 따른 것으로, 당시 워킹그룹은 도에 원인자 부담 원칙의 환경보전기여금 도입을 위한 법 제도개선 로드맵을 마련할 것을 주문한 바 있다.이에 따라 이번 용역에서는 환경보전기여금 부과 목적과 부과요건의 적법성, 부과기준 및 적정 부과금액, 징수 방법의 적정성, 재원조성 필요성 및 사용용도, 존속 기한, 기존 부담금과 유사·중복성 등이 종합 검토된다.용역진은 이를 바탕으로 제주특별법 개정안과 관계 부처와 기획재정부에 제출할 환경보전기여금 신설 계획안을 수립하게 된다.도는 학계, 전문가, 환경단체, 관광업 종사자 등 20여 명으로 구성된 자문위원회를 별도로 구성해 제도 도입 추진과정에서 제기되는 이슈와 위헌 소지 여부 등에 대한 의견을 수렴키로 했다.이를 바탕으로 2018년 9월까지 제주특별법 개정안 초안을 확정해 국회의원 발의로 입법을 추진한다는 계획이다.도는 문재인 정부의 국정과제인 '제주특별자치도 분권모델의 완성'과 연계 추진함으로써 환경보전기여금 제도 도입으로 도의 재정·세재 관련 권한이 강화될 것으로 기대하고 있다.도는 세계적 환경브랜드 가치를 보유한 제주가 급증하는 관광객으로 인해 환경오염 처리비용이 지속적으로 증가하고 있고, 제주의 지리적 특성을 고려한 새로운 환경정책 도입으로 환경비용 관련 신규재원을 발굴할 필요가 있다며 제도 도입의 당위성을 강조했다.현재까지 검토된 안으로는 항공·선박 요금에 일정 금액을 부과하는 안이 제시된 상태로, 향후 환경보전기여금 제도가 도입될 경우 관광객들의 비용부담이 커질 전망이다. mro1225@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도 관광객 몰리는 성산, 돔베고기 맛집 ‘성산가든’ 주메뉴 바로가기 본문 바로가기 시작페이지로 즐겨찾기 2022.07.22 (금) 구름많음동두천 22.7℃ 구름조금강릉 24.1℃ 구름많음서울 25.6℃ 구름조금대전 26.3℃ 구름많음대구 24.0℃ 구름많음울산 22.9℃ 구름조금광주 26.1℃ 구름많음부산 22.9℃ 구름조금고창 24.6℃ 구름조금제주 26.7℃ 맑음강화 23.8℃ 구름많음보은 24.1℃ 구름조금금산 23.8℃ 구름많음강진군 25.9℃ 구름많음경주시 22.5℃ 구름많음거제 23.2℃ 기상청 제공 회원가입 로그인 검색어를 입력해주세요. 검색하기 정치 청와대 대통령실 국회 정당 정부 선거 통일·외교 경제 경제일반 폴리경제인터뷰 폴리경제이슈 금융·증권 산업·재계 교통·유통·물류 IT·통신 생활경제 건설·부동산 바이오 소상공인 공기업 오피니언·이슈 이슈·기획 정국진단 인터뷰 좌담회 스페셜 인터뷰 칼럼 기고 기자수첩 카드뉴스 여론조사 여론조사 Bank 폴리 여론조사 사회·문화 사회 문화 교육 국제 연예 스포츠 생활 사회·문화 인터뷰 공공지방 지방자치 공공기관 단체장 인터뷰 호남 취재본부 부산·울산·경남 대구·경북 폴리TV 폴리인터뷰 폴리현장 폴리 좌담회 정치를 알려주마 경제브리핑 들어보이소 포토뉴스 직격인터뷰 김능구와이강윤의 여론조사대해부 폴리경제인터뷰 직격인터뷰 기획특집 4.7 재보궐선거 21대 총선 7회 지방선거 19대 대선 한국정당실록60년 상생과통일포럼 18차 금융포럼 창간 21주년 17차 경제산업포럼 16차 경제포럼 15차 경제산업포럼 창간 20주년 14차 경제산업포럼 13차 경제산업포럼 창간 19주년 12차 경제포럼 11차 경제포럼 창간 18주년 10차 경제포럼 8차 경제포럼 창간 17주년 7차 경제포럼 6차 경제포럼 창간 16주년 5차 금융포럼 4차 경제포럼 3차 금융포럼 2차 통일세미나 1차 경제세미나 리더십과정 서비스 알립니다 인사·동정·부고 소상공인 홈 경제 소상공인 제주도 관광객 몰리는 성산, 돔베고기 맛집 ‘성산가든’ 강유라 기자 news@pcss.co.kr 등록 2017.08.29 13:37:09 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 최근 9월이 다가옴에 따라 휴일에 맞춰 제주도 여행을 계획하는 사람들이 늘고 있다. 이에 국내에서도 잘 알려진 여행지인 제주도에 위치한 서귀포는 사계절 모두 대부분 온화한 날씨로 여행하기 좋은 곳이다.  서귀포에 위치해 있는 성산일출봉은 매년마다 제주도에서 가장 방문객 수가 많은 여행지이며, 특히 성산일출봉이 가족단위 관광객이 많이 찾아들고 있는 이유는 유네스코 세계자연유산으로 선정됐기 때문이다. 이는 해발 180m로 약 5천년 전 얕은 수심의 해저에서 수성화산 분출에 의해 형성된 전형적인 응회구이기에 더 많은 관광객이 방문 중이다.성산일출봉 관광 후에는 대부분 음식점을 찾아 맛을 보곤 하는데, 이에 ‘성산가든’은 최근 제주도 향토음식 돔베고기를 신메뉴로써 개발하게 된 제주 성산 돔베고기 맛집이다. ‘성산가든’은 신메뉴 부드러운 돔베고기와 2인분 주문이 가능한 흑돼지두루치기, 날치알볶음밥을 메뉴으로써 갖추고 있다고 밝혔다.이 음식점의 ‘상차림’은 공기밥과 된장찌개는 물론이고 다양하게 바뀌는 기본 찬과 보통 양념된 고기와 야채가 따로나온다. 이는 얼리지 않은 생고기를 사용하기 때문이다. 이에 보다 더 부드러운 맛을 느낄 수 있다고 한다.다른 메뉴인 날치알볶음밥은 밥 한공기에 채썬 김치와 양파 및 김가루 등이 모두 함께 함유되어 제공이 되는데, 이는 직접 볶아 먹을 수 있기에 남은 고기의 양을 조절해 함께 즐길 수 있다고 한다.한편 “현재 브레이크 타임이 15시에서 16시30분 사이에 생겼기에 양해를 부탁드리며 돔베고기가 신메뉴로써 출시되었으니 보다 노력하여 맛있는 서비스를 제공하겠다. 또한, 솥뚜껑 흑오겹/생오겹을 판매중이니 많은 관심 바란다”라고 제주 성산 돔베고기 맛집 성산가든 관계자가 전했다. 강유라 기자 의 전체기사 보기 관련태그 #제주 성산 돔베고기 맛집 강유라 기자 기업현장을 찾고 있습니다. 알아두면 쓸모있는 우리 주변의 정보를 모으겠습니다. 이메일news@pcss.co.kr 페이스북 트위터 카카오톡 카카오스토리 라인 네이버블로그 밴드 네이트온 쪽지 보내기 ⓒ 폴리뉴스(www.polinews.co.kr), 무단전재 및 재배포금지폴리뉴스는 인터넷신문위원회의 인터넷신문 윤리강령을 준수합니다. 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 추천기사 좌담회 [폴리 7월 좌담회 전문②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” 권성동 직무대행 체제‧조기 전당대회 개최 놓고 안철수-김기현 이견 [한국갤럽] 향후 1년 집값 ‘하락할 것60%-상승할 것18%’ 하락전망 10년 내 최고치 尹대통령 MB사면 반대여론 질문에 “미래지향적으로 가면서 국민정서도 감안” 진중권, 권성동 교섭단체 발표연설에 “술 취했나” 수위 높은 비판 ‘권성동 사촌업체 일감 몰아주기 특혜’ 보도에 與 “사실무근…1억 손배 청구” 많이 본 기사 1[폴리 7월 좌담회 전문①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” 2진중권, 권성동 교섭단체 발표연설에 “술 취했나” 수위 높은 비판 3[미디어토마토] 이명박 사면 ‘찬성33.1%-반대61.2%’, 이재용 사면 ‘찬성65%-반대29.8%’ 4[미디어토마토] 尹대통령 지지율30.4% 부정67.2%, ‘민주당49.5%-국민의힘32.4%’ 5[한국갤럽] 尹대통령 지지율 32% 전주와 동률, 부정평가 60% 7%p↑ 6尹대통령 MB사면 반대여론 질문에 “미래지향적으로 가면서 국민정서도 감안” 7합천군, ‘제10회 하찬석 국수배 영재바둑대회’ 결승전 개최 8거창군, ‘2022년도 거창군민상’ 후보자 추천 받아 이슈 더보기 [폴리TV][7월 좌담회 ②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리뉴스 강경우 PD]&lt;폴리뉴스&gt;와 월간 &lt;폴리피플&gt;은 7월 19일 “윤석열 정부 첫 해, 경제 위기 속에 총체적 난국이 우려된다”는 주제로 정국좌담회를 가졌다. 이날 좌담회에는 홍형식 한길리서치 소장, 차재원 부산 가톨릭대학교 특임교수, 황장수 미래경영연구소장, 그리고 본지 김능구 폴리뉴스 대표가 참석했다. [폴리 7월 좌담회 전문②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리 7월 좌담회 전문①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” 인터뷰 더보기 [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [폴리뉴스 강경우PD] 기후 위기 대응은 에너지 전환이 핵심이다. 탄소 중립을 위한 국제적 공조 속에 화석연료의 감축과 재생에너지의 비중을 늘려가는 에너지 믹스의 재구성 과정이 관건이지만, 구체적인 대응전략과 로드맵은 각 국의 상황에 따라 큰 차이를 보이고 있다. 미래 경제와도 떼놓고 생각할 수 없는 이슈인데, 폴리뉴스 김능구 대표는 7월 스페셜인터뷰로 홍종호 서울대 환경대학원 교수님을 모시고 우리나라의 현 주소와 바람직한 대응 방향에 대해 들어봤다. [스페셜인터뷰 전문 ②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [스페셜인터뷰 전문①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” [스페셜 인터뷰] 홍종호 서울대 환경대학원 교수 “원전, 재생에너지 확대 과정의 보완 발전원으로 봐야” 카드뉴스 더보기 [카드뉴스] KT&amp;G의 '바다 환경'을 지키기 위한 노력을 소개합니다 [폴리뉴스 김상준 기자] "여름철이면 생각나는 바다. 우리 모두가 환경 오염의 심각성을 환기하고 생태계 보호의 중요성을 공감해 환경보호를 실천하도록 KT&amp;G도 함께 노력하겠습니다" 지구 표면 2/3 이상을 차지하며 30만여 종의 생물이 살고 있다는 생명의 보고, 바다! 특히 여름철, 휴가를 갈곳으로 가장 먼저 떠올리곤 합니다. 2015년 세계자연기금(WWF)에서 발표한 자료에 따르면 바다의 자산 가치는 24조달러(2경9000조) 이상입니다. 휴가철에 보는 아름다운 경관뿐만 아니라 경제적 자산으로서도 바다는 매우 소중하고 가치있다고 할 수 있습니다. 하지만 이렇게 소중한 바다가 환경오염으로 인해 심각한 위험에 처해 있습니다. 일회용품 소비가 급증하면서 해양 쓰레기로 인한 생태계 피해가 심각한 수준입니다. 여러 단체가 바다를 위한 노력을 기울이는 가운데, KT&amp;G 역시 '바다환경 지키기'에 적극 동참하고 있습니다. KT&amp;는 2022년해양환경공단, 사단법인, 동아시아바다공동체 오션과 함께 바다를 지키기 위한 업무협약을 체결했습니다. 이 협약은 올해 다양한 해양 환경 활동을 추진하는 내용을 담고 있습니다. 특히 해양 오염 심각지역 실태조사 [카드뉴스] 팽팽한 찬반 논란의 '지역상권법'…뭐길래 [폴리뉴스 김미현 기자] ‘지역상권 상생 및 활성화에 관한 법률안(지역상권법)’제정을 놓고 찬반 의견이 팽팽하게 맞붙고 있습니다. 이 법은 지역상생구역이나 자율상권구역으로 지정된 지역에 스타벅스 같은 대기업 계열 점포의 출점을 제한하는 것이 골자입니다. 대상은 유통산업발전법(유통법)과 중소기업 적합업종제도 등에 포함되지 않아 규제를 받지 않는 대기업입니다. 법안이 시행될 경우대기업이 운영하는 직영 점포의 신규 매장을 열기 위해서는 지역상인의 동의를 받아야 합니다. 이는 임대료 상승에 따른 소상공인의 내몰림 현상(젠트리피케이션) 문제를 막고자 마련됐습니다. 복합 쇼핑몰이 들어오면 주변 임대료가 뛰는 경향이 있습니다. 하지만 이를 두고 유통업계는 소비자들의 편의성을 떨어뜨리는 과도한 중복 규제라고 반발에 나섰습니다. 또 재산권과 영업의 자유를 침해하는데다 대기업 프랜차이즈보다 자영업체의 고용률이 낮아질 가능성도 우려하고 있습니다. 하지만 지역상권의 특색을 유지하기 위해서는 해당 법안의 제정이 필요하다는 의견도 나옵니다. 소상공인과 대기업 모두'상생'을 이룰 수 있는정책이 절실한 때입니다. 트렌드&amp;토픽 더보기 스마트 심리상담 전문가 양성을 위한 '스마트심리상담사 3급 자격과정' 개설 4세대 스마트치료의 새로운 지평을 열어가는 ㈜한국스마트치료협회(Korean Association of Smart Therapy)는 디지털 매체를 활용하여, 보다 더 스마트한 심리상담을 진행하는 전문가 양성을 위한 ‘스마트심리상담사 3급 자격과정’을 개설하고 교육생을 모집한다고 밝혔다. 스마트심리상담사는 온라인사이트, 온라인심리검사, 영상매체를 적극적으로 활용하며, 스마트폰 앱, VR기기, 메타버스 등을 통해 상담, 치료, 교육을 할 수 있는 심리상담사이다. 본 자격증은 민간자격증으로 한국직업능력연구원에 정식 등록되어있는 자격증이며 바쁜 현대인들을 위해 온라인으로 진행된다는 점이 특징이다. 교육과정은 ‘스마트치료이론, 다양한 접근법, 교육, 건강, 진단, 심리치료, 스마트치료의 효과, 스마트심리상담사, 스마트치료 상담과정, 스마트치료와 다른 심리치료와의 비교’ 총 10개 분야에 대한 온라인 강의로 구성되어 있다. ‘스마트심리상담사 3급 자격과정’ 완료 후 자격증을 발급받게 되면 학교, 일반인 대상 스마트 힐링교육을 시행할 수 있는 권한이 부여되며 KAST 강사진에 등록되어 협업과 새로운 기회 창출에 도움을 준다. 코로나19로 다양한 스마트기기를 활용한 비대면 18년째 '독도 영유권' 억지 주장한 日, "한일안보협력 중요" 강조 검찰, 은수미 전 성남시장 징역 5년 구형…은 "부정청탁·뇌물 받지 않아" 국민연금 53만원 받을 때 공무원연금 248만원…공적연금 간 격차 줄이려면 바이든, 코로나19 양성…"가벼운 증상으로 외부 일정 취소, 격리 상태서 업무 계속" 폴리TV 더보기 [폴리TV][7월 좌담회 ②] “가시화되는 전방위 사정 칼날, 검찰공화국의 진면목인가?” [폴리TV][7월 좌담회①] “취임 두 달 30% 지지율 턱걸이, 윤 대통령에게 반전의 기회는?” [폴리TV][스페셜인터뷰②] 홍종호 서울대 환경대학원 교수 “원전은 재생에너지 확대 과정의 보완 발전원으로 자리매김” [폴리TV][스페셜인터뷰①] 홍종호 서울대 환경대학원 교수 “에너지 전환정책 사실상 실패, 새정부 재생에너지 확대 전념해야” 매체소개 이용약관 개인정보취급방침 청소년보호방침 (책임자 : 한유성) 기사제보 이메일 무단수집거부 (07327) 서울 영등포구 여의나루로 71 동화빌딩 1607호 | 대표전화 02-780-4392등록번호 : 서울아00050 | 등록일자 : 2005년 9월 12일 | 발행인 : (주)이윈컴 김능구 | 편집인 : 박혜경 폴리뉴스의 모든 콘텐츠는 저작권법의 보호를 받는바, 무단 전재·복사·배포 등은 법적 제재를 받을 수 있습니다. Copyright © 2000 (주)이윈컴. All rights reserved. mail to polinews@polinews.co.kr UPDATE: 2022년 07월 22일 21시 10분 최상단으로</t>
+  </si>
+  <si>
+    <t>제주도, 관광객에게 ‘환경세’ 받는 방안 추진한다 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 13℃ 서울 11℃ 인천 12℃ 춘천 14℃ 강릉 13℃ 수원 13℃ 청주 14℃ 대전 15℃ 전주 16℃ 광주 15℃ 대구 15℃ 부산 15℃ 제주 제주도, 관광객에게 '환경세' 받는 방안 추진한다 관광객이 많이 찾는 제주특별자치도가 '환경세' 부과를 검토할 예정으로 알려져 관심이 쏠리고 있다. 이별님 기자 2017-08-29 13:42:06 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / 연합뉴스[인사이트] 이별님 기자 = 제주특별자치도가 관광객에게 환경 관련 비용을 부과하는 '환경세' 도입을 추진할 예정이다.지난 28일 조선비즈는 제주도가 '환경보전기여금 제도' 도입을 위한 타당성 조사 연구를 이달 말부터 시작한다고 보도했다. 보도에 따르면 해당 연구는 한국지방재정학회가 맡아 240일 기한으로 진행되며, 이르면 내년 4월 관광객에게 환경보전기여금을 부과하는 게 적절한지 아닌지와 실제 부과액 기준 등이 나올 것으로 예상된다. 이번 연구용역은 올해 1월 '제주 자연 가치 보전과 관광문화 품격 향상을 위한 워킹그룹'이 내놓은 행정권고안에 따른 것이다. 제주특별자치도권고안은 최근 제주도를 찾는 관광객들이 크게 늘면서 환경파괴가 잇따르고, 환경보전 비용도 늘어나서 제주도 방문객들에게 환경보전비용을 부담시켜야 한다는 내용이다. 제주도 측은 제주도를 찾는 관광객들도 환경보전기여금 도입에 찬성한다고도 주장했다.지난해 7월 제주발전연구원이 발표한 '공영관광지 요금 현실화 방안 연구용역'에 따르면 제주도를 방문한 관광객 307명을 대상으로 '환경세' 도입 찬반을 물은 결과 69.7%(211명)이 찬성이라고 답했다는 것이다. 그러나 환경보전기여금 제도 도입은 전문가들 사이에서도 의견이 엇갈린다. 연합뉴스워킹그룹에 참여했던 한 전문가는 "헌법에서 규정한 거주 이전의 자유를 침해할 수 있다"며 "제주도 방문자들에게만 환경보전기여금을 부과하는 것은 다른 지역과의 형평성에도 맞지 않는다"고 밝혔다.환경보전기여금이 당장 부과되기도 어려울 것으로 보인다. 해당 제도 도입이 타당하다는 연구 결과가 나오더라도 관련 법 제정을 거쳐야 하기 때문이다. 연합뉴스하지만 제주도는 문재인 정부가 100대 국정과제 중 77번째 과제로 내놓은 '제주특별자치도의 제도적 완성'의 세부 사항에 '국세의 지방세 이양 추진'을 넣은 만큼 정부와 여당이 환경보전기여금 도입에 찬성할 것으로 기대하고 있다. 제주도 관계자는 "법안 마련 과정에 학계 전문가와 소비자 단체, 관광업계 관계자, 환경단체 등으로 구성된 자문위원회를 만들어 제도 도입에 대한 의견도 수렴할 방침"이라고 전했다.제주도 여행 '기간별' 꼭 가야하는 필수 코스 3가지당일부터 2박 3일까지 기간별 제주 여행 코스를 살펴보자.이별님 기자 byul@insight.co.kr 이별님 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>원희룡 지사 "제주도 관광도시 아닌 스마트 아일랜드 추구” :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 원희룡 지사 "제주도 관광도시 아닌 스마트 아일랜드 추구” 등록 2017.08.23 21:06:18 작게 크게 【제주=뉴시스】원희룡 제주도지사가 23일 오후 제주도 제주시 설문대여성문화센터에서 열린 ‘테크플러스 제주 2017’의 무대에 올라 강연하고 있다. 2017.08.23. (사진=제주특별자치도 제공) 【제주=뉴시스】조수진 기자 = “앞으로 제주는 관광의 도시가 아니라 창조적 두뇌가 모이는 창조적인 섬, 스마트 아일랜드를 추구해야 한다” 원희룡 제주도지사가 23일 오후 제주시 설문대여성문화센터에서 열린 ‘테크플러스(tech+) 제주 2017’에서 “사물인터넷, 인공지능 등 미래 기술이 제주의 자연·문화·관광·농업 자원과 사람을 연결하는 것이 스마트 아일랜드의 핵심”이라며 이같이 밝혔다. 올해로 5회째를 맞는 이 행사는 기술과 인문학을 결합한 포럼으로 ‘스마트 아일랜드, 연결의 미래’ 주제 아래 4차 산업혁명 사례를 중심으로 진행됐다. 이날 자리에는 산·학·연 전문가와 기업가, 학생, 도민 등 400여명이 참여했다. 정재훈 한국사업기술진흥원장은 인사말에서 “테크플러스는 기술, 경제, 문화, 인간이 어우러져 세상을 바꾸는 새로운 실마리를 찾으려는 시도”라며 “이번 행사가 4차 산업시대를 이해하는 새로운 통찰력을 제시하길 기대한다”고 말했다. 이날  첫 무대는 VR(가상현실) 아티스트 염동균 작가가 '스마트 아일랜드, 제주의 미래'를 역동적으로 표현한 작품으로 꾸며졌다. 이어 백희성 KEAB 건축디자인 대표의 ‘스마트도시의 개념’, 권순범 이큐브랩 대표의 ‘쓰레기와 신기술의 접목’, 김형수 트리플래닛 대표의 ‘전 세계 12개국에 70만그루의 나무를 심은 비결’, 민동욱 ㈜엠씨넥스 대표의 ‘스마트 DID(카메라 기술·인공지능·빅데이터를 융합한 기술)로 예측한 제주 관광산업의 미래’ 등의 강연이 열렸다. 지난 2013년부터 ‘제주형 지식포럼’으로 열리고 있는 테크플러스는 산업통상자원부, 제주특별자치도, 한국산업기술진흥원, 제주테크노파크, 인터넷언론 제주의소리, 기술인문융합창작소가 주최하고 있다. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>제주도 태교 마사지, ‘숲의스파’에서 지친 피로 풀기 위한 관광코스 서비스 제공 - 데일리시큐 × 전체기사 산업 이슈 정책 해외 IT&amp;생활 전체 핫이슈 라이프 뉴스 경제일반 이슈 산업 정책 해외 IT&amp;생활 핫이슈 자료실 전체기사 기사검색 기사제보 뉴스레터신청 2022-10-11 12:45 (화) 처음으로 로그인 회원가입 이전 다음 제주도 태교 마사지, ‘숲의스파’에서 지친 피로 풀기 위한 관광코스 서비스 제공 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제일반 제주도 태교 마사지, ‘숲의스파’에서 지친 피로 풀기 위한 관광코스 서비스 제공 박수빈 기자 승인 2017.08.29 00:00 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 올 여름이 비교적 선선해지며 점차 가을이 들어서는 계절이다. 최근 이에 가족이나 연인과 함께 여행을 계획 중인 사람들이 늘어나며 태교여행을 찾는 여행객도 늘고 있다.한편 태교여행을 위한 관광객들에게 맞춤 여행지로 손꼽히는 제주도는 ‘천지연폭포’가 맞춤 여행지로 잘 알려져있다.서귀포 시내에 위치한 ‘천지연폭포’는 시원한 물 줄기부터 오리가 물 위를 돌아다니는 모습까지 보이는 천혜자연을 소유한 곳으로 많은 사람의 산책지로써 알려지고 있는 곳이다. 산책길이 비교적 잘 포장되어 있기 때문에 어린 아이들과 함께 하는 관광지로써도 알려져 있는 천지연폭포는 높이는 22m, 너비12m로 폭포 아래의 못은 길이가 20m에 이른다. 또한 계곡 주변의 난대림이 사철 내내 푸르고 기암절벽이 만들어 낸 풍광이 아름답기로도 유명하다. 천연기념물로는 폭포 주변의 무태장어 서식지와 담팔수 자생지, 난대림 등이 천연기념물로 지정되어 있다. 천지연폭포 산책으로써 눈으로 보는 힐링을 했다면 몸의 피로를 풀 수 있으며 제주도 태교 마사지로 알려진 ‘숲의 스파’가 있다.‘숲의 스파’는 발과 전신, 아로마 테라피 전문점으로 전문가가 1:1 태교관리를 하여 호호바오일을 사용하는 여행 서비스를 제공한다고 밝혔다. 이는 호호바오일을 사용하기 때문에 부은 다리의 부종 빼는 것과 어깨뭉침을 효율적으로 관리한다고 한다. 또한 이외에 아로마 전신관리 시에는 라벤더아로마오일을 사용한다고 한다.또한 관계자 말에 따르면 “족욕을 하게 될 시에는 아로마 솔트를 사용하며 따뜻한 차를 제공하기 때문에 몸 전체 신진대사를 활발하게 하여 온몸의 순환을 돕는다”며 “제주도 태교 여행객을 위한 관광코스를 제공하기 위해 보다 나은 서비스를 진행하도록 노력하고 있다”고 전했다. Tag #제주도 태교 마사지 #숲의스파 저작권자 © 데일리시큐 무단전재 및 재배포 금지 박수빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 많이 본뉴스 1 국제사이버보안인증협회 창립총회 및 발대식 개최 국제사이버보안인증협회 창립총회 및 발대식 개최 2 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 [박나룡 보안칼럼] 국가의 개인정보 흐름도가 필요하다 3 한수원-한전KDN, 정규직 채용전환 인턴에 대한 미지급 퇴직금만 2억여 원 4 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 국회ICT융합포럼, ‘사이버보안 현황과 전략’ 세미나 개최 5 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 [3보] 스타벅스코리아, 보안문제 지적한 CISO·CPO에 직장내 괴롭힘으로 감봉 처분 오늘이 주요뉴스 시스코 제품 보안취약점 주의...최신 버전 사용해야 주의 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 긴급속보 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 정책 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 시스코 제품 보안취약점 주의...최신 버전 사용해야 IT 및 언론계 종사자 대상 해킹 공격 증가...채용 미끼로 접근 2022년 소프트웨어마이스터고 끝장 해커톤 대회 개최 고학수 제2대 개인정보보호위원장 취임 보안자료 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 3교시 개인정보 유·노출 예방 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재- 2교시 개인정보의 안전한 관리 (22년) 개인정보보호 수준별 교육_ 초급과정 교육 교재-1교시 개인정보보호법 주요 내용 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-3교시 공공기관 특화제도 (22년) 개인정보보호 수준별 교육_ 공공기관 과정 교육 교재-2교시 공공기관 관련 개인정보 유출사례분석 및 사후발생 대처 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 송파구 가락로 208, 402호(송파동, 일조빌딩) 대표전화 : 02-400-2908 팩스 : 02-400-2906 청소년보호책임자 : 길민권 법인명 : 제호 : 데일리시큐 등록번호 : 서울 아 02362 등록일 : 2011년 3월 28일 발행일 : 2017-05-01 발행·편집인 : 길민권 사업자 번호 : 301-87-02348 데일리시큐 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 데일리시큐. All rights reserved. mail to mkgil@dailysecu.com 위로</t>
+  </si>
+  <si>
+    <t>이상순·이효리, 제주도 관광객에 호소 "사생활 침해 말아주길" [전문] 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방국제생활/문화연예연예가화제방송ㆍTV영화음악해외연예인터뷰N스타일스포츠여행TVBBC 홈 &gt; 연예 &gt; 연예가화제 이상순·이효리, 제주도 관광객에 호소 "사생활 침해 말아주길" [전문] (서울=뉴스1) 장아름 기자					| 2017-08-17 15:09 송고 | 2017-08-17 15:10 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 효리네민박 인스타그램(사진 JTBC 제공)© News1 가수 이상순, 이효리 부부가 자신의 제주도 집 방문을 자제해줄 것을 재차 당부했다. 이상순은 17일 자신의 페이스북에 "간곡한 부탁에도 여전히 많은 분들이 우리집에 찾아오고 있다"는 글을 게재했다. 그는 이어 "지난 번에도 말했지만 이곳은 우리가 편히 쉬어야할 공간임에도 집에 찾아와 담장안을 들여다보고, 사진을 찍는 사람들 때문에 마음 편히 쉬지도, 마당에서 강아지들과 놀지도 못하고 있다"고 호소했다. 또 이상순은 "우리 뿐만 아니라 끊임없이 들어오는 차들과 사람들 때문에 이웃 주민들도 불편을 호소하고 있다"면서 "여러분들은 즐거운 마음으로 오실지는 모르겠지만 우리는 끊임없이 오는 차들과 관광객들 때문에 많은 스트레스를 받고 있다"고 털어놨다. 끝으로 이상순은 "다시 한 번 간곡히 부탁드린다"면서 "제발, 더이상의 사생활 침해는 하지 말아주길 부탁드린다. 우리부부, 집에서 만은 편히 쉴 수 있도록 배려해주시길 바란다"고 다시 한 번 당부했다. 한편 이들 부부는 매주 일요일 저녁 8시30분 방송되는 JTBC '효리네 민박'에 출연 중이다. 지난달 20일에도 이상순은 "우리가 이곳에서 방송을 찍기로 결정했고 뒷감당도 우리가 해야 한다고 생각은 했지만, 너무 많은 분들이 찾아오시는 바람에 정상적인 생활이 힘들 지경"이라는 글을 게재한 바 있다. 이하 이상순 페이스북 글 전문이다. 간곡한 부탁에도 불구하고,여전히 많은 분들이 우리집에 찾아오고있습니다.지난번에도 말했지만, 이곳은 우리가 편히 쉬어야할 공간임에도 불구하고집에 찾아와 담장안을 들여다보고, 사진을 찍는 사람들 때문에맘편히 쉬지도, 마당에서 강아지들과 놀지도 못하고 있습니다.우리 뿐만 아니라 끊임없이 들어오는 차들과 사람들때문에 이웃주민들도 불편을 호소하고 있습니다.여러분들은 즐거운 마음으로 오실지는 모르겠지만, 우리는 끊임없이 오는 차들과 관광객들때문에 많은 스트레스를 받고 있습니다.다시한번 간곡히 부탁드립니다.제발, 더이상의 사생활 침해는 하지 말아주길 부탁드립니다.우리부부, 집에서 만은 편히쉴수 있도록 배려해주시길 바랍니다. aluemchang@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 관련기사 김태희, 직접 올린 근황은…독보적 미모 '작은 아씨들' 김고은, 300억+아파트 주인됐다 김미숙, 김고은·남지현과 투샷…64세 동안 미모 장원영, 파리 밝힌 천상계 미모 "잊을 수 없는 밤" 리지, 새 증명사진 공개…싱그러운 미소 '44㎏ 감량' 최준희, 튼살도 가감없이 공개 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 주현영, 입장하는 '동그라미' 안현모, 재혼 언급 "원하는 삶 살아줄 여자 만나"…라이머 '당혹' 성유리, 리콜남 충격적 행동에 "소름 끼쳐" 왜? 60대 선우은숙, 4세 연하 유영재 아나운서와 재혼 "응원 부탁"…팬들 축하(종합) 김태희, 직접 올린 근황은…독보적 미모 속 동료들과 뮤지컬 관람 [N샷] 김혜자, 김용건 늦둥이 아들 언급 "아기 잘 자라?"…김수미 "지 아범 딱 닮았다" [단독] 진해성 "결백...학폭 안했다, 루머에 단호히 대응"(인터뷰) "박수홍父 횡령혐의 되면 처벌 면제...친형 형량 줄이려는 듯" [직격인터뷰... 45세 에코브릿지 "결혼 생각 없던 나 바꾸게 한 사람...잘 살게요" [직... 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>[포토]민동욱 엠씨넥스 대표, 스마트 DID로 제주도 관광산업 혁신 할 수 있어 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 로봇 이데일리 단독 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 팜이데일리 마켓in 스냅타임 [포토]민동욱 엠씨넥스 대표, 스마트 DID로 제주도 관광산업 혁신 할 수 있어 등록 2017-08-23 오후 5:17:43 수정 2017-08-23 오후 5:17:43 가 가 방인권 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 방인권 기자] 한국산업기술진흥원(원장 정재훈, 이하 KIAT)과 제주특별자치도(도지사 원희룡)가 23일 제주시 설문대 여성문화센터에서 개최한 첨단기술과 인문, 예술을 융합한 신개념 지식콘서트 tech+ (테크플러스)에서 민동욱 엠씨넥스 대표가 제주도 관광산업의 발전을 위해서 스마트 DID 기술 도입이 필요함을 강조하고 있다.tech+는 기술에 인문학적 가치를 결합하여 산업기술생태계를 확장하기 위한 지식콘서트로, 산업통상자원부와 KIAT가 2009년 부터 9년째 개최하고 있으며 제주에서는 2013년을 시작으로 5회차를 맞이했다. 한국산업기술진흥원 제공. 주요뉴스 "내 노후 어쩌나" 국민연금 상반기 적자 76조 6600억 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] # 테크플러스 제주 2017 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 3선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 4“혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'파퀴아오와 대결' DK YOO "기부 경기지만 진짜로 싸우겠다" [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 [포토]쌀쌀해진 날씨, 겨울옷 입은 나무들 [포토]상춘객 유혹하는 하얀 코스모스 [포토]금리인상에 '영끌'은 옛말...2030 서울 아파트 매입 비중 '뚝' 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 “혜민스님, 따가운 시선에 상처받아”… ‘풀소유’ 논란 2년만에 포착 3 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 4 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 8 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 '음주측정 거부 체포' 신혜성 "변명의 여지 없다..죄송" 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 상장사 10곳 중 1곳 주가 1년새 '반토막' 8 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 9 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 10 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 4 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 5 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 6 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 7 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 8 '미우새' 김준호, 조기 퇴근 걸고 처절한 몸부림 '폭소' 9 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 10 '삼식이 삼촌' 송강호→변요한·이규형·서현우 캐스팅 라인업 완성 [공식] 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! 北 전술핵운용부대 '드레스를 조심해' "어이가 없네" 왼쪽 오른쪽 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 "비위판사 연금 깎겠다던 법원, 여론 잦아들자 '도입 불가'"[2022국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 월가 황제 "고통 속 S&amp;P 3000선 붕괴"…바닥 안 보인다 "내 노후 어쩌나" 국민연금 적자 '76조 6600억' 정진석 “조선은 썩어서 망해”…野 “친일 앞잡이, 천박” 맹비난 .국감 취재하던 기자, 화장실서 심정지로 쓰러져…병원 이송 .선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" .쇼핑몰 대박 난 강민경, '65억 건물' 매입해 신사옥 입주 ."尹, 한동훈 애정어린 눈으로"...'이재명 대북코인' 부메랑? .상폐 심판대 선 신라젠..16만 개미 눈물 닦을까 .코레일, GTX 개통 시 연간 1000억원 손해…재무건전성 ‘빨간등’ 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 - 현대삼호중공업 LNGC 1척 수주…계약금액 3468억원 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>최장 10일 황금연휴 관광업계 들뜬 마음 &lt; 경제일반 &lt; 경제 &lt; 기사본문 - 금강일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 뉴스 지역 YouTube NAVER Post 모바일웹 로그인 구독하기 PDF 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 최장 10일 황금연휴 관광업계 들뜬 마음 SNS 기사보내기 SNS 기사보내기 스크롤 이동 상태바 현재위치 홈 경제 경제일반 최장 10일 황금연휴 관광업계 들뜬 마음 기자명 이준섭 기자 입력 2017.08.24 19:58 댓글 0 SNS 기사보내기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 정부가 오는 10월 2일을 임시공휴일로 지정하는 방안을 놓고 고심을 거듭하고 있는 가운데 관광업계는 내심 반색하는 분위기가 역력하다. 2일이 임시공휴일로 지정될 것이란 예상에 힘이 실리는 터라 지난해 임시공휴일 특수를 톡톡히 누린 관광업계는 정부의 결정에 촉각을 곤두세우고 있다.[관련 기사 - 올 추석 최장 10일 '슈퍼 연휴' 될까] 여행업계는 최대 10일 동안 이어지는 10월 황금연휴를 앞두고 벌써부터 들뜬 모습이다. 해외로 떠나는 여행상품은 동난 지 오래됐고 현재 추석연휴기간 국내 여행상품 가격은 평소보다 2~3배는 기본이고 많게는 5배 이상 뛰었다. A 여행사 관계자는 “2일만 연차나 휴가를 쓰면 10일을 쉴 수 있어서 연초부터 여행 문의가 잇따랐다. 지금은 90%가 예약이 끝나 정부가 공휴일 확정 발표를 해도 저렴한 가격대의 상품을 찾긴 어려울 것 같다”고 귀띔했다. 지역 숙박업계는 다른 측면에서 기대를 걸고 있다. 긴 연휴인 만큼 해외여행 수요가 더 많겠지만 그만큼 해외로 나가길 포기한 사람들이 국내로 눈길을 돌릴 것이라는 기대감에서다. 이미 지역의 주요 호텔 및 숙박업소엔 연휴를 맞아 나들이에 나서는 가족 단위 관광객들의 예약 문의가 잇따르고 있다. 대전 유성의 한 호텔 관계자는 “웬만한 경우 그 전주나 몇 일을 앞두고 예약이 몰리기 마련인데 이번 연휴기간엔 벌써부터 많은 예약 전화들이 걸려와 예약이 상당 부분 마감된 상태다. 9월 중순 이후를 지나면 객실의 대부분 예약이 끝날 것으로 본다”고 기대했다. 항공업계는 임시편 투입, 항공권 할인을 실시하며 국내·외로 몰리는 여행객 수송을 위한 비상체제에 돌입했다. 특히 업계는 해외 노선에 여행객이 몰리는 단거리는 물론 긴 연휴를 고려해 장거리 노선에도 가족단위 관광객이 몰릴 것으로 보고 다양한 판촉전에 나설 채비를 갖추고 있다. 아시아나항공은 8월 말까지 19개 노선을 대상으로 정상운임에 최대 40% 할인된 가격으로 특가 항공권을 판매한다. 이번 연휴가 먼 거리의 유럽이나 미주까지 다녀올 수 있을 정도로 넉넉한 기간이라 대부분이 여행객들이 해외여행을 할 것이라는 전략적 판단에 따른 거다. 국내선도 비상이긴 마찬가지다. 청주에서 제주로 출발하는 국내선 항공은 이미 모든 예약이 끝났고 일부 항공사의 경우 직항표가 매진돼 일본을 경유해 제주로 가야할 처지다. 청주공항 아시아나항공 관계자는 “이곳 청주도 연휴 기간 국내 여행을 위해 티켓 발권 문의하는 분들이 많다. 2일 임시공휴일 이야기가 이미 오래전부터 나왔던 터라 제주로 가는 국내선은 예약이 끝났고 다른 지역도 비슷한 수준이라고 보면 된다”고 말했다. 이준섭 기자 ljs@ggilbo.com 저작권자 © 금강일보 무단전재 및 재배포 금지 이준섭 기자 ljs@ggilbo.com 다른기사 보기 SNS 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 추천기사 선우은숙 나이, 전 남편 누구? [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 유영재 프로필 화제, 누구길래? 시사 지역 문화·연예 01 [종합] 11일 오전 11시 오퀴즈 정답 'G라이브, 신세계, 자연공유, 주영NS' 02 전장연, 4호선 지하철 시위 11일 화요일도 강행 03 [내일 날씨] 전국 기상청 일기예보, 아침 최저기온 3도 연휴 뒤 출근길 더 추워...점차 맑은 하늘 회복 04 대전·세종 ‘끝없는 부동산 빙하기’ 05 대전·세종 ‘끝없는 부동산 빙하기’ 06 버킷스튜디오 주가 급락, 이유는? 07 제13회 대전효문화뿌리축제 성료 08 시중자금 은행 쏠림, 반작용 우려 09 1호선, 유튜브 자주 끊기는 이유 10 “지속가능한 대학 최선 다할 것” 11 [2022 국감] 사이버범죄 수사관 1인당 200건 사건 담당 12 피플바이오, 주가 강세 보여 13 비난·논란 자초하는 대전시의회 14 국민 허리띠 졸라매는데 공기업은 특혜… 전체보기 01 예산군, 예산장터 삼국축제서 나무 나눠주기 행사 02 단양군, 법정 계량기 정기검사 실시 03 영동군, 어르신 독감예방접종 12일부터 연령별 순차접종 04 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 05 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 06 보은署, 아동안전지킴이 대상 응급처치 교육 실시 07 보은군 삼승면지사체, 독거노인 주거환경 개선 사업 앞장 08 보은 동광초, 초록학교 활동 전시회 열어 09 옥천군 정신건강 홍보주간 운영 10 세종 갈산서원서 가을 수놓는 국악 선율 11 [동정] 보령시장 12 금산군, 우수 평생학습도시 선정 13 제40회 금산인삼축제 피날레 ··· 역대 최대 103만 명 운집 14 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 전체보기 01 선우은숙 나이, 전 남편 누구? 02 유영재 프로필 화제, 누구길래? 03 임영웅, ‘TMA 5관왕’ 04 박수홍 엄마 ‘카레사건’ 재조명 05 ‘복귀’ 홍진영, 근황은? 06 송가인 콘서트, 목포 다음은 천안 07 임창정 걸그룹 미미로즈, “200억 다 어디갔어?” 08 ‘공효진♥’케빈오 프로필은? 09 골프선수 박결, 국내 톱스타와 불륜설에... 10 '스맨파' 새삥 안무 표절 논란 뭐길래? 11 고두심 아들 김정환 누구? 12 ‘환승연애2’ 최초 유포자에 고소장 제출 13 비비, 비키니 끈 풀려 대형 노출사고 날 뻔... 14 '여성 골퍼와 불륜설'에 비·조정석 뿔났다 전체보기 가장 빠른 충청뉴스 보령시, 전국 자동차 동호인들이 대천해수욕장에 다 모인다 대천해수욕장에서 15~16일 양일간 ‘2022 제1회 보령 AMC 모터페스티벌’을 개최한다.보령시가 주최하고 아주자동차가 주관하는 이번 축제는 차량 튜닝, 전시, 모터스포츠 등 자... [동정] 당진시장 [동정] 보령시장 [동정] 서산시장 스포츠 뉴스 이정후 여동생 누구길래? 고우석과 결혼 이대호 와이프 신혜정 눈물...‘왜?’ '레전드' 카시야스-푸욜, 게이설 불러 일으킨 커밍아웃 헤프닝 괴물 김민재, 파워랭킹 7위 랭크 윤이나 징계에 박세리, ‘변명은 절대 있을 수 없다’ 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 서구 대덕대로 223 8층 (서구 둔산동 1033 대우토피아 8층) 대표전화 : 042)346-8000 팩스 : 042)346-8001~2 청소년보호책임자 : 김형중 법인명 : 주)금강일보사 제호 : 금강일보 등록번호 : 대전 가 00021 등록일 : 2010-04-12 발행일 : 2010-05-03 발행인 : 김장식 편집인 : 차철호 Copyright © 2022 금강일보. All rights reserved. mail to admin@ggilbo.com 위로 전체메뉴 전체기사 지역 전체 지역일반 세종 내포/홍성/예산 천안/아산 서산/당진/태안 보령/서천 공주/부여/청양 금산/논산/계룡 지역기획 충북 충남 대전 스포츠 전체 스포츠일반 축구 해외축구 야구 해외야구 농구 배구 골프 인천아시안게임 한화이글스 FIFA U-20 월드컵 러시아월드컵 2018 아시안게임 대전하나시티즌 뉴스Plus 전체 최신기사 카드뉴스 연재 운세 바둑 유머 알림 온라인 금강일보 뉴스룸 최일의 뉴스브리핑 핫뉴스 브리핑 알쏭달쏭 국민연금 김현호의 저녁 뭐 먹지 오늘의 역사 금강의 아침 명언 곽진성의 오늘의노래 오! 유행 오늘의 꽃 틀리기 쉬운 맞춤법 스펙UP [오늘의 공모전] 생활과 건강 퇴근길 영어회화 김미진 신익규 박정환 김정섭 김지현 신성룡 해외소식 경제 전체 경제일반 건설/부동산 금융/증권 기업/산업 과학 유통/쇼핑 대덕특구 경제기획 취업/창업 농업/축산업/수산업/산림 IT 보험 인구/복지 물가 인생역전 로또 정치 사회 스포츠 경제 정치 사회 스포츠 경제 생활문화 코스닥,코스피 경제기획 유망중소기업 탐방 충청기업실록 정치 전체 정치일반 국회/정당 행정/자치 대전시정 충남도정 정부청사 정치기획 선거 여론조사 정치 인사이드 [선택 4·15] [6·1 지방선거] 사회 전체 사회일반 사건/사고 법원/검찰/경찰 교육 보건/의료 NGO 노동/복지 메트로 여성 종교 사회기획 문화 국방 환경 날씨 행사/축제 With함께 국제 행정 안전 인권 서중석의 싸인(Sign) : 삶과 죽음의 진실게임 [아이가 희망입니다] e-브리핑 금강레이더 [스토리텔링 Why] 대전 청년을 말하다 스토리 리와인드 [대전 아동가구 재래식 화장실 제로화 캠페인] 문화 전체 건강/웰빙 공연/전시 영화 출판/문학 방송/연예 퀴즈 여행 문화기획 금강라이프 갤러리 금강 자전거 여행 역사 행사/축제 대청호 오백리길 문화일반 #편집부다락방 게임 무지개빛 다문화 G-카페 [대하소설] 대륙에 일던 풍운 [시각시각] 대전둘레산길 다시 쓰는 錦江 대전 3대하천 탐험대 [정승열의 힐링여행 2] 강신철 교수의 우바쓰운동 김미진의 [좋은집사 되기 Q&amp;A] 포토 전체 포토뉴스 포토에세이 금강만평 시민기자 카툰세상 금강 view] 명예기자가 보는 세상 김형중의 뷰 김동직의 줌인 오피니언 전체 칼럼 사설 기자수첩 이야기부자 사유담 김충남의 힐링고전 권태달의 풍수이야기 농가월령가 교단일기 유물로 본 충남 역사문화 국민연금 Q&amp;A 교통안전 365 신웅순의 시조한담 산학협력단 브리핑 김도운의 우문우답 [데스크칼럼] 금강人 양태자 박사의 5분 중세사 조재도의 삶과 詩 폴리스노트 경매 Q&amp;A 독자투고 건강보험 Q&amp;A 충청유교문화의 재발견 [기자칼럼] G-스토리 금융 Q&amp;A 추모의 편지 이선준의 꿈꾸는 다락방 김충남의 광장인문학 시 쓰는 기자 김충남의 중용강의 김충남의 채근담 산책 메디컬365 차철호의 #길 김 기자의 雜記 임상훈의 중국 역사문화기행 최신웅의 취재수첩 [이규식칼럼] 길을 걷다 특집 전체 신년특집 100인에게 묻다 CEO와의 차 한잔 명절특집 보건의 날 전기의 날 과학·정보통신의 날 창간호 K-뷰티 퍼포먼스 금강마당 전체 마당일반 사람들 문화 동정 인사 결혼 부음 사고 개업 알림 본사손님 커뮤니티 전체 독자투고 썸맘의 반려동물 이야기 세종플러스 전체 정치 경제 사회 문화·건강·레저 행정·종합 오피니언 인사·알림 사람들 세종마당 국제 과학 Hotclick 전체 문화·연예 방송·연예 정치·사회 스포츠 경제 국제 china 전체 演艺界 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 여행, 다채로운 관광 명소와 함께 중문 흑돼지 맛보는 맛집 코스도 빠질 수 없어 &lt; 공연·전시 &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 제주도 서귀포 여행, 다채로운 관광 명소와 함께 중문 흑돼지 맛보는 맛집 코스도 빠질 수 없어 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 공연·전시 제주도 서귀포 여행, 다채로운 관광 명소와 함께 중문 흑돼지 맛보는 맛집 코스도 빠질 수 없어 기자명 이정형 기자 입력 2017.08.25 03:59 수정 2018.09.21 19:47 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주흑돼지, 참숯에 구워 잡내 없고 다양한 메뉴와 곁들이면 맛 ↑ 제주를 찾는 여행객들은 아름다운 자연경관으로 힐링하고 지역 특유의 맛있는 음식을 먹으며 일상에서 쌓인 스트레스를 풀고자 한다. 명소와 맛집을 적절히 섞은 여행코스로 보다 완벽한 하루를 계획하는 모습을 보이는 것이다. 지역 고유한 먹거리가 많은 곳이라 특히 제주 맛집에 대해 관심을 갖는 이들이 많다. 특히 신선한 회 그리고 풍부한 육즙과 쫄깃한 식감의 제주 흑돼지 이 두 가지는 꼭 먹고 가려고 한다. 도심에서는 쉽게 맛볼 수 없는 제대로 된 제주흑돼지를 즐기고 싶다면 서귀포시 이어도로에 위치해 있는 제주흑돼지전문점 ‘꺼멍목장’도 가볼만하다. 고객들의 오감을 자극하는 맛으로 자꾸만 생각나게 만드는 매력을 가진 서귀포 중문 흑돼지 맛집으로 소문난 곳이다.  매장 전체가 통유리로 꾸며져 제주의 아름다운 경관을 감상하며 엄격한 품질 검수를 통한 퀄리티 높은 제주흑돼지를 먹을 수 있다. 맛과 멋 두 마리 토끼를 모두 잡을 수 있다는 것. 한 번 방문하면 그대로 단골고객이 될 정도라는 게 고객들의 평이다. 메뉴는 제주흑돼지부터 제주백돼지까지 크게 나뉘며 입맛과 취향에 따라 오겹살, 목살 중 택일해 즐기면 된다. 고기는 참숯으로 구워 잡내 없이 즐길 수 있고 감칠맛 돋는 맬젓에 찍으면 더욱 맛있게 먹을 수 있다. 파절이, 김치, 쌈채소도 신선한 맛을 자랑한다. 꺼멍목장에서는 3인분 주문 시, 귀한 대접 받는 옥돔구이를 무료로 서비스하고 있어 보다 풍성한 한 상차림을 받아볼 수 있다. 고기를 다 먹은 후에는 제주딱새우된장찌개 또는 냉열무국수, 소면으로 식사를 마무리하면 좋다. 특히 제주 딱새우된장찌개는 딱새우가 들어가 국물 맛이 더욱 시원하고 고소하다. 아무리 배불러도 밥 한 공기는 너끈히 먹을 수 있다는 고객들도 여럿이다. 꺼멍목장 관계자는 “엄격한 품질 검수를 통한 믿고 먹을 수 있는 제주흑돼지와 백돼지를 제공하며 푸짐한 상차림을 통해 맛의 진수를 확실히 보여주고자 한다. 아름다운 제주 경관과 맛있는 음식이 눈과 입을 즐겁게 해 고객들의 만족도가 더욱 높다”고 말했다.   [뉴스컬처 360VR] [뉴스컬처 연예TV] [네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #제주맛집 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 하반기 관광진흥기금 융자 90개소 211억 확정 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 하반기 관광진흥기금 융자 90개소 211억 확정 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 하반기 관광진흥기금 융자 90개소 211억 확정 기자명 고병수 기자 입력 2017.08.20 12:59 수정 2017.08.20 13:25 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주-국제뉴스) 고병수 기자 = 제주특별자치도는 올해 하반기에 90개 업체에 211억 원의 관광진흥기금 융자 지원을 확정했다고 20일 밝혔다.道에 따르면 17일 제5차 제주관광기금운용심의위원회를 개최해 이 같은 내용을 심의 확정했다는 것.지난 7월 17일부터 7월 28일까지 실시한 하반기 제주관광진흥기금 융자지원 신청‧접수를 마감한 결과 총 105개소에 236억원의 기금 신청됐다는 것.분야별로 경영안정자금 분야에 총 98개소 159억원, 건설자금 4개업체 69억원, 개보수 자금 3개업체 8억원이 접수됐다. 융자지원 확정은 접수된 105개소 236억원 신청규모 중 농어촌진흥기금이나 중소기업 육성기금 등 타기금 수혜 사업체나 행정처분 업체 등 15개 업체 25억 원을 제외해 확정된 규모는 총 90개 업체 211억 원이다.융자지원 확정된 내용을 보면 경영안정자금 분야의 경우 83개 업체 138억 원이 확정됐다.관광숙박업 14개소 52억원, 여행업 16개소 22억원, 관광객이용시설업 2개소 5억원, 관광편의시설업 4개소 7억원이 지원 확정됐다. 기타 농어촌민박 등 노후 전세버스 교체를 위해 47개소 52억 원이 지원됐다.그리고 개보수를 포함한 건설자금 분야의 경우는 7개 업체 73억 원이 확정됐다.전문휴양업 및 관광식당업 신축으로 4개소 65억 원을, 일반숙박업 개보수 3개소에 8억 원이 융자 확정됐다.관계자는 "제주관광진흥기금이 도민과 지역사회에 실질적 혜택이 돌아갈 수 있도록 융자지원 대상 확대 및 도민 체감형 사업발굴을 지속 추진할 계획"이라고 했다.한편 제주도는 올해 상반기에 103개업체 242억 원을 융자 지원했고, ‘사드’피해 특별융자로 230개 업체 307억 원을 융자 지원한 바 있다.이에 따라 하반기를 포함해 올해 관광진흥기금 융자규모는 423개 업체에 760억 원을 지원하고 있다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도문화관광해설사협회 창립 16주년 기념식 :: 공감언론 뉴시스통신사 :: 2022.10.11 (화) 서울 17℃ K-Artprice 프라임뉴스 위클리뉴시스 실시간 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 광장 포토 뉴시스 TV [속보]尹 "文정부 폐지한 '학업성취도' 전수 평가 실시" [속보]코스피, 1.78% 하락한 2193.02 출발 [속보]尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" [속보]尹 "한미일 안보협력, 비핵화에 유효...핵 통해 얻을것 없다" [속보]尹, 이재명 친일공세에 "국민들이 잘 판단할 것" '출근길 최저 3도' 출근길 기온 뚝…서울 아침 6도 지방 지방최신 세종 부산 대구/경북 광주/전남 대전/충남 울산 강원 충북 전북 경남 제주 제주도문화관광해설사협회 창립 16주년 기념식 등록 2017.08.09 10:37:42 작게 크게 【제주=뉴시스】조수진 기자 = 9일 오전 제주도 제주시 연동에 위치한 제주웰컴센터 1층 웰컴홀에서 제주특별자치도문화관광해설사협회 창립 16주년 기념식이 열리고 있다. 2017.08.09. susie@newsis.com Copyright © NEWSIS.COM, 무단 전재 및 재배포 금지 뉴시스 기획특집 거래절벽 도미노 태양광 뇌관 터지나 망값전쟁 오피니언 팝밴드 레이니 최고 뮤지션 아니지만 현재의 우리는 최고 국내 의약품 허가심사 수수료 인상의 당위성 뉴시스 PIC 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 주호영 "북한 도발, 민주당 정권이 대응 제대로 하지 않은 결과" 美 뉴욕에서 '콜럼버스 데이' 퍼레이드 개최 외교부 들어서는 후나코시 다케히로 일본 외무성 아시아대양주국장 이시간 핫 뉴스 장성규 "부모님 재산, 주식으로 날렸다" 재결합설 있더니… 선우은숙, 연하 아나운서와 재혼 '쇼핑몰 대박' 강민경, 65억 건물 매입…"직원 다 울어" 현미 "유부남인 줄 모르고 임신…돌아가라 하니 방망이 들어" 김신영에 "넌 보물될 거야" 예언한 전유성 근황 보니 신화 신혜성, 도난차량서 음주측정 거부하다 체포 안현모, 라이머에 재혼 언급…"원하는 삶 함께할 여자 만나라" 예비신부 김연아, 한복 화보…"♥고우림이 반할 만" 오늘의 헤드라인 "국무회의에 '청년' 올린 尹대통령 "좌절않게 희망의 사다리 놓겠다" 윤석열 대통령은 11일 '1차 기초학력 보장 종합계획'에 따른 학업성취도 전수평가 실시 보고와 관련 "지난 정부에서 폐지한 학업성취도 전수평가를 원하는 모든 학교가 참여할 수 있도록 하고 학생별로 밀착 맞춤형 교육을 해서 국가가 책임지고 기초학력 안전망을 만들겠다"고 밝혔다. 윤 대통령은 이날 오전 서울 용산 대통령실 2층에서 진행된 국무회의에서 "軍, 北 저수지 미사일에 "킬체인 의식 궁여지책" "감사원 국감 시작부터 '감사위원 배석' 놓고 파행 "경찰, 이준석 2차 소환…성접대 여부 곧 판단할 듯 "러, 키이우 등 전역 미사일 공습…최소 111명 사상 "확진 1만5476명, 사망 석달만에 최저…2가백신 시작 "KTX 열차 가격 6년만에 50% 상승…"독점 구조 탓" "서울서 50대男, 총기로 극단선택 시도…생명 위독 많이 본 기사 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 1"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 김정은 국무위원장의 부인 리설주가 한미를 겨냥한 북한군의 대규모 무력 시위 현장에 모습을 드러냈다. 김정은이 미사일 발사 현장에 리설주를 동행시킨 것이 공개된 것은 이번이 사실상 처음이다 노동신문 등 북한 관영 매체들은 노동당 창건 77주년인 10일 김정은이 지난달 25일부터 이달 9일까지 북한군 전술핵운용부대를 비롯해 장거리포병부대·공군비행대의 훈련을 지도한 내용을 사진과 함께 보도했다. 매체는 리설주의 참관 사실을 직접 언급하지는 않았지만, 리설주가 김정은과 나란히 초대형 방사포(KN-25) 발사 훈련을 지켜보는 2'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 3尹, 이재명 친일공세에 "국민들이 잘 판단할 것" 4尹, 이재명 '친일'공세에 "핵 위협 앞 어떤 우려가 정당화될 수 있나" 5尹, 용산 대통령실서 국무회의…주한대사 신임장 제정식 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2한국인 오늘부터 무비자 일본 관광 시작…항공권 예약 급증 3키이우 공격에 아비규환…BBC기자 중계 중단까지 4LA 시의회 의장, 인종차별 발언· 욕설로 의장직 사임 5유엔총회, 러 우크라 병합 규탄 결의안 논의 시작…공개투표 결정 1뉴욕증시, JP모건 '경기침체' 경고에 하락 마감…나스닥 1.04%↓ 미국 뉴욕증시 주요 지수는 10일(현지시간) 하락 마감했다. CNBC, 마켓워치에 따르면 이날 뉴욕증권거래소(NYSE)에서 다우존스 30 산업평균지수는 전장보다 93.91포인트(0.32%) 내린 2만9202.88로 거래를 마쳤다. 스탠더드앤드푸어스(S&amp;P) 500 지수는 전장보다 27.27포인트(0.75%) 밀린 3612.39로 장을 닫았다. 기술주 중심의 나스닥지수는 전장보다 110.30포인트(1.04%) 떨어진 1만542.10에 장을 마쳤다. 나스닥 지수는 2020년 7월28일 이후 약 2년 만에 최저치를 2①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 3KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 4엄빠찬스 증가세…5년간 미성년 임대소득만 2500억 5국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2KB證 "엠게임, 중국서 흥행 중인 '열혈강호 온라인' 주목" 3신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 4코스피, 1.78% 하락한 2193.02 출발 5미투온-미투젠 공동 개발 '포켓배틀스 NFT War', DAU 10만 돌파 1정유업계, 원유 감산에 정제마진 올랐어도 실적 '불투명'…왜? 정제마진 악화로 실적부진을 보인 국내 정유업계가 산유국들의 원유 감산 발표로 정제마진에 숨통이 트일 조짐이다. 하지만 경기 침체에 따른 석유제품 수요 감소가 예상돼 하반기 실적의 복병이 될 전망이다. 11일 관련 업계에 따르면 석유수출국기구(OPEC)와 러시아 등 주요 산유국들의 협의체인 '오펙 플러스'는 내달 원유 생산량을 이달보다 하루 평균 200만 배럴 줄이는데 합의했다. 이는 코로나19 이후 지난 3년 간 최대 감산 폭이다. 특히 정제마진이 0달러 또는 마이너스를 기록하며 실적 부진이 극심했던 국내 정유업계는 대 2"우크라이나 삼성 입주 빌딩 파괴 당시 삼성 주재원들 사전 피신" 3국토부 '스마트 모빌리티 물류 산업전'…기관 50곳 참여 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5국민 10명 중 5명 "전기차' 선호"…화재 등 안전문제는 걸림돌 1"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 '손목 위 주치의'를 표방하는 스마트워치의 안전 문제가 수면 위로 부상하고 있다. 11일 외신과 업계에 따르면 최근 국내외에서 애플워치와 갤럭시워치에서 발화, 화상 문제를 경험했다는 주장이 잇달아 제기되고 있다. IT 전문매체 나인투파이브맥에 따르면 최근 한 애플워치7 사용자가 자신의 워치가 과열로 인해 폭발하기 직전의 모습처럼 불이 붙고 연기가 났다고 주장했다. 해당 사용자는 애플워치7을 착용하고 있다가 기기가 비정상적으로 뜨거워짐을 느껴 기기 상태를 확인했는데, 워치에 금이 가있는 것을 확인했다. 급격한 2알테오젠 "불법 공매도 대응 무상증자 결정…금감원 진정서 제출" 3文정부 성과 지우기?…'데이터바우처 지원사업' 예산 삭감 4 '망값 협상'에 통행세 횡포? 구글의 이중잣대 5뷰노, 가정용 심전도 측정 의료기기 식약처 인증 획득 1신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 그룹 신화의 멤버 신혜성(본명 정필교·43)씨가 도난 차량에서 자던 중 발견돼 음주측정을 거부한 혐의로 현행범 체포됐다. 11일 경찰에 따르면 서울 송파경찰서는 이날 오전 1시40분께 서울 송파구 탄천2교 인근 도로에서 도로교통법상 음주측정거부 및 절도 혐의로 신씨를 체포해 조사 중이다. 신씨는 도난 차량 안에서 자던 중 신고를 받고 출동한 경찰관의 음주측정 요구를 거부한 혐의를 받는다. 경찰은 신씨가 타고 있던 차량이 도난 신고가 접수된 것을 확인, 절도 혐의를 추가해 조사 중이다. 해당 차주는 신씨를 알지 2조사 거부로 '감사원법 위반' 고발된 文 전 대통령…처벌 가능성 있나 3유명 래퍼, 대학축제서 다이빙하다 추락…"아무도 안 잡아줘" 4①대한민국, 사람이 없어진다…2030년 '인구지진' 직면 5부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 1부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 경기 부천서 가정불화로 80대 아버지를 흉기로 찔러 숨지게 한 60대 아들이 경찰에 붙잡혔다. 부천 오정경찰서는 존속살해 혐의로 A(60대)씨를 붙잡아 조사중이라고 11일 밝혔다. A씨는 전날 오전 10시18분께 부천시 오정동의 한 빌라에서 아버지 B(80대)씨의 왼쪽 목 부위를 흉기로 찔러 숨지게 한 혐의를 받고 있다. A씨는 범행 후 112에 전화를 걸어 "아버지 B씨를 흉기로 찔렀다"라고 신고했으며 이후 B씨는 119구급대에 의해 인근 병원으로 옮겨졌지만 결국 숨졌다. 회사원인 A씨는 술에 취해 2연휴 뒤 출근길 아침 10도 이하 '쌀쌀'…큰 일교차 유의 3인천, 출근길 바람 불어 더 춥다…낮부터 기온 올라 '큰 일교차' 4서울투자청, '국제 M&amp;A' 설명회…"벤처 출구전략 모색" 5인천 아파트서 외벽청소 하던 30대 추락해 사망, 경찰 수사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 강원도가 지급보증한 레고랜드 테마파크 대출 자산유동화기업어음(ABCP)이 결국 부도처리되면서 지방자치단체 보증 프로젝트 파이낸싱(PF) 사업에 비상이 걸렸다. 금융투자(증권)업계에 따르면 레고랜드 테마파크 기반 조성사업을 추진한 강원중도개발공사(GJC)가 필요자금을 조달하기 위해 설립한 특수목적법인(SPC) '아이원제일차'가 부도 처리됐다. 강원도는 GJC의 최대 주주로서 지분 44%를 보유하고 있다. 강원도는 최문순 전 지사 시절 춘천 중도 레고랜드 테마파크 조성 기반 공사를 맡은 강원중도개발(GJC)이 2050억 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 1뮤지컬 '드라큘라', 김진환·유승우 합류...11월 개막 뮤지컬 '드라큘라'가 3년여 만에 돌아온다. 11일 제작사 글로벌컨텐츠에 따르면 '드라큘라'는 11월15일 서울 송파구 올림픽공원 우리금융아트홀에서 개막한다. 1897년 발간된 브람 스토커의 소설이 원작이다. 1995년 체코 프라하에서 초연된 후 독일, 프랑스, 러시아, 스위스, 폴란드, 벨기에, 한국 등에서 공연하며 약 500만명 이상 관객을 동원한 유럽 뮤지컬의 대표작이다. 브로드웨이 뮤지컬과는 차별화된 유럽식 대형 뮤지컬로 죽을 수 없는 형벌을 받은 비운의 남자 드라큘라의 매혹적인 이야기에 감미로운 음악을 더 2‘부산 밤이 보라색으로 물든다’...부산시, BTS 공연 연계 ‘보라해부산’ 조성 3자전거여행·워케이션…MZ취향 담은 관광앱들 두각 4"문화재청 내년 청와대 문화재 보전관리 예산은 '0원'" 5CJ ENM 등 K콘텐츠기업들 스페인서 성과…758억 투자상담 1이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 이영표(45) 대한축구협회 부회장이 2023 아시아축구연맹(AFC) 아시안컵 유치를 위해 마지막까지 구슬땀을 흘리고 있다. 그는 "축구라는 매개로 국민들이 하나로 뭉칠 수 있는 계기가 될 것이다"며 개최 당위성을 강조했다. ◆"2002년 한일월드컵의 향수를 다시 느꼈으면…개최 명분은 우리에게" 이 부회장은 최근 뉴시스와 만나 "아시안컵 개최를 통해 축구라는 매개로 국민들이 하나로 뭉칠 수 있다. 대한민국이라는 이름아래 이념, 사상, 정파를 따지지 않고, 국민 통합을 이룰 수 있는 게 스포츠이고, 축구라고 생각한다"고 말했 2'투타 조화' SSG, 2022년 가장 빛났다…LG 역대급 2위 3진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 494분 뛴 이강인…마요르카는 엘체와 1-1 무승부 5손흥민의 토트넘, '나무 심기'로 故 벤트로네 코치 추모 1선우은숙, 4세 연하 아나운서 유영재와 재혼 탤런트 선우은숙(63)이 아나운서 유영재(59)와 재혼했다. 소속사 스타잇엔터테인먼트는 11일 "선우은숙씨가 좋은 인연을 만나 결혼의 결실을 맺게 됐다"며 "상대는 아나운서 유영재"라고 알렸다. "두 사람은 기독교 신자라는 공통점 아래 신앙과 신뢰를 쌓았다"며 "최근 혼인신고와 양가 상견례를 마쳤다. 새로운 출발에 따뜻한 관심·응원을 부탁드린다"고 했다. 선우은숙은 1978년 KBS 특채탤런트로 데뷔했다. 1981년 탤런트 이영하(72)와 결혼, 26년만인 2007년 이혼했다. 당시 선우은숙은 기자회견을 열고 "나쁜 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 이 시간 Top 종합 정치 국제 경제 금융 산업 IT·바이오 사회 수도권 지방 문화 스포츠 연예 최원철 공주시장 ‘강한 공주, 행복한 시민’ 비전 제시 이복현 "은행권에 금리인하 요구권 개선책 요구" '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 세종시민단체 "상병헌 시의장 성추행 사과 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 이복현 "은행권에 금리인하 요구권 개선책 요구" 윤, '전술핵 재배치'에 "여러 의견 경청"…핵무장 공론화할까 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 유병호, '대통령실과의 문자' 논란에 "송구스러워…소통은 정상" 여야, 감사원 국감 시작부터 '감사위원 배석' 놓고 파행(종합) 감사원, 서해감사 절차 미흡에 "허위사실…감사원장이 지휘감독" "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 신생아 7명 살해한 '죽음의 천사'…인슐린·공기 주사 주입 BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 국제사회, 유엔총회서 러 대규모 미사일 공격 강력 규탄(종합) 이란 석유·가스 노동자들도 반정부 시위 가세…"총성·폭발음 들려" 러-일 외교관 추방 신경전 언제까지 계속 되나 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ G7 정상들, 11일 긴급회의…젤렌스키와 우크라 사태 논의 젤렌스키 "오데사 등 전력 복구"…오후 5시~10시 전력 소비 자제 80년간 인도 힌두교 사원 지킨 악어 사망…육식 안 먹었다고? 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 UAE 대통령, 11일 러 방문…푸틴과 우크라 사태 논의 위안화 기준치 1달러=7.1075위안...0.12% 절하 이복현 "은행권에 금리인하 요구권 개선책 요구" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" BOE 추가 시장 안정대책에도 英 국채 금리 오히려 급등 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 홍콩 증시, 中 코로나 확산에 속락 출발...H주 1.79%↓ IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 이복현 "은행권에 금리인하 요구권 개선책 요구" 금감원장, 김건희 도이치 '전주' 의혹에 "직접조사 안해서 잘 몰라" 이복현 "문제 있는 사모펀드, 개별적으로 직접 챙겨" 국민연금 이사장, 대표소송 주체 논란에 "수익률 비교할 것" 에이팩트, 3분기 영업익 12억…전년比 35.5%↑ 위안화 기준치 1달러=7.1075위안...0.12% 절하 시중은행 고금리에…저축은행 예금금리 평균 4%대 정무위, BNK 회장 '한양증권 채권 몰아주기' 의혹 제기 이복현 "도이치 경찰 내사시 협조 공문 접수 없었다" 신라젠 내일 상폐 여부 결정…16만 개미 '노심초사' 신한카드, 문화 활성화 위한 '더프리뷰 아트위크' 개최 캠코, 창립 60주년 기념 사회공헌 수기 공모전 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" '특공'받은 축평원 직원 절반, 아파트 매도·임대 '혜택 악용' KDI "반도체 수요 둔화로 수출 부진…경기 회복세 약해져" 작년 국가기술자격 응시 25% 급증…'직장인' 비율 높아 IMF·WBG 등 국제금융기구, 한국 청년 인재 직접 채용한다 삼성전자·포스코 등 6개사 '상생협력 우수사례' 선정 국내 최대 안전산업박람회, 3년 만에 대면 개막 3년간 돼지열병 살처분 41만여 마리…예방 차원 84% 달해 마사지건 '테라건 프로 5세대' 출시…저소음 모터 장착 농업용 폐비닐 연 10만t씩 불법 방치·소각…"대기오염 심각" "韓폭우·美폭염 등 기후위기 현실화"…정부, 과학기술로 해법 찾는다 동탄성심병원, 원격협진시스템 검증…"의료격차 해소" 쿠콘-오토커넥션, 신차담보 대출비교 서비스 만든다 백신 궁금증 담았다…온라인 교육 프로그램 개발 제약바이오 채용 큰 장 섰다…68곳 참여 채용박람회 개막 정한근 KCA 원장 “신규 주파수 발굴 및 적기 공급 지원" 허성욱 NIPA 원장 "AI 확산·SW 융합으로 ICT 글로벌 경쟁력 확보" 플리토, 국제학술대회 '콜링'서 언어 데이터 품질 뽐낸다 KISA, 인터넷주소분쟁조정위원회 7기 위원 25명 위촉 갑자기 찾아온 초겨울 날씨…심혈관질환 예방하려면 "AI가 병원 예약일 챙긴다"…KT, 세브란스에 ‘AI 보이스봇’ 적용 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 국회 화장실서 60대 기자 쓰러져 병원 이송…심정지 추정 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 서울 잠원동서 총기 사건으로 생명 위독…소지 경위 수사(종합) 21세기 가장 빠른 첫눈에 '가을 추위'…"기후변화 영향 배제못해" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 제주 지역 사라져가는 식물들 한자리에…전시회 개최 거동불편 노인 재택의료 시범사업 공모…20여 곳 선정 여가부, 다문화가정 아동 이중언어·학습 지원 강화 "국가기관 자격시험 화장실 이용 후 재입실 금지...인권침해" 서울교육청 '난산증 초등학생 지원'…이대와 업무협약 軍, 北 저수지 미사일 발사에 "킬체인 의식 궁여지책…감시 회피 목적" 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 서울시, 여성일자리박람회 개최…335명 채용 나선다 '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 서울시 "친환경보일러로 교체하세요"…지원대상 확대 '기후위기 대응·치유' 도시농업 역할은…국제컨퍼런스 개최 서울 코로나 확진 3054명 발생…사망자 1명 하남시, 제19회 대한민국 평생학습대상 전국 1위 두살 아들 두고 6·25 유격전 참전…故 박태인 경사 유해 확인 연천 재인폭포 주상절리 '미디어파사드' 전시 인천, 전날 941명 코로나19 확진…1명 사망 도시개발사업 도움 대가 금품수수…도시계획위원 구속기소 '왜 신고했어?' 보복 폭행해 지인 실명케 한 60대 구속 "일감 몰아주고, 내부거래 만연"…발전5사 불법 하도급 백태 세종시민단체 "상병헌 시의장 성추행 사과 요구" 신종마약 '야바' 국내 유통시킨 태국인 65명 검거 "원전·화력발전 북한 EMP 공격 무방비"…대책마련 시급 '질타' 한전 사장 "수익성 높은 해외사업 매각 바람직하지 않아" 돈 안 빌려준다고 70대 지인 둔기로 살해한 50대 검거(종합) 제주 지역 사라져가는 식물들 한자리에…전시회 개최 국내 최대 안전산업박람회, 3년 만에 대면 개막 한국국학진흥원, '한글 산업화' 포럼 12일 온라인 개최 울산 남구, 일반음식점 2000곳에 위생모 지원 정기명 여수시장 "시민이 행복한 살기 좋은 도시 건설" "고궁 수유실, 男 이용제지 차별"…문화재청, 시정 조치 박보균 장관 "한미동맹, 문화로 새 지평"…美·멕시코 출장 3년 만의 동래읍성역사축제, 올 가을 다시 만난다 강경젓갈축제, '젓갈과 상월고구마'가 만나 '풍성' 서울예술교육 16년을 한눈에… 2022 예술교육축제 개최 "문화재 도난 15년간 100% 증가 특사경은 14명 불과" 전남도, 문화재 보수 국비 469억 확보…전년대비 110억 증가 신안군, 압해도 분재정원서 14~23일 '대한민국 분재대전' '서울디자인 2022' 알고 즐기기…전시 등 볼거리 풍성 가을축제·콘서트 속으로 '풍덩'…건강하게 즐기려면 문화재청, 靑개방행사 위해 대통령실 경비단 제복 대여 요청? 영남대 박물관 ‘고분에 고분을 더하다’ 특별전 개최 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" 'WC 출루율 5할' 김하성, 디비전시리즈서도 펄펄 날까 KBL '가입비 미납' 캐롯에 최후통첩…"13일까지 내라" KT 전유수, 유니폼 벗는다…"정말 열심히 달려왔다" 19세 장효준, 내년 LPGA투어 진출권 획득 '커리어하이 시즌' KT 고영표, 최종전서 14승 도전 한국 펜싱, U-23 아시아선수권 7회 연속 우승 또 끝까지 온 KT…올해도 마지막에 운명이 바뀐다 '극장 멀티골' 울산 골잡이 마틴 아담, K리그1 35R MVP 디트로이트 힌치 감독, 11월 방한 MLB 올스타팀 사령탑 [KBO결산②]진화한 이정후·돌아온 에이스 김광현…2022년 빛낸 스타 '시즌 5승' 박민지, 세계랭킹 2계단 상승한 16위 '복싱영웅' 파키아오 메타버스로…"아바타로 팬과 소통" '스맨파' 2번째 탈락 크루는 누구?…메가 크루 미션 후반전 시작 (여자)아이들 '아이 러브', 선주문 70만장 돌파 '2022 지니뮤직어워드' MC, 전현무…내달 열린다 소원해결사 총집합…'일당백집사' 캐릭터 포스터 공개 스트레이키즈 '맥시던트' 써클차트 리테일 앨범 1위 오승근, 아내 故김자옥과 8년만 감동 재회…'아바드림' '스맨파' 바타 '새삥' 안무 표절 의혹…에이티즈 안무 원작자도 저격 '커튼콜' 하지원 "권상우와 눈빛만 봐도 잘 맞아" 변요한, 송강호 32년만 첫 드라마에 힘…'삼식이 삼촌' 프로미스나인, 일본 콘서트 성료…데뷔 4년 만에 첫 해외 공연 김윤서, 손석구와 한솥밥…샛별당 전속계약 많이 본 기사 1'디폴트' 선언 레고랜드 PF...증권﻿家, 지자체 사업 '비상' 2'보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 3광주서 70대 여성 숨진 채 발견…타살 가능성 수사 4동료들 보는데 부하직원 엉덩이 때린 간부…결과는 '정직 1개월' 5울산시 전국체전 해외 동포선수단 만찬…타 시도와 자매결연 610월1~10일 무역수지 '적자'로 시작…수출 118억·수입 156억 달러 7모텔서 홀로 숨진 생후 5개월 여아…부모 방치 정황 확인 1선우은숙, 4세 연하 아나운서 유영재와 재혼 2"한물갔다"는 김신영에 "넌 보물될 거야" 예언한 전유성 근황은 3신화 신혜성, 도난차량서 음주측정 거부 혐의 경찰 체포 4현영, 꽉찬 워킹맘 일상…"뷰티·라이프스타일 회사 운영" 5"손목 위 주치의, 손목 위 폭탄될라"…갤워치·애플워치 화상 논란 6"같은 색 점퍼 입고 나란히"…리설주, 미사일 발사현장 첫 동행 7공효진, 뉴욕 결혼식…10세 연하 케빈오와 백년가약 기자수첩 국내 의약품 허가심사 수수료 인상의 당위성 식품업계 가격 줄인상 불편한 3가지 이유 피플 박완수 경남지사 "행정통합, 정치권 결단·주민 의지로 가능" 이영표 부회장 "아시안컵 유치, 축구통해 국민 하나로" 세상에 이런 일이 '보수업체 직원 신분 악용' 초·중학교서 불법 촬영 20대 영장 부천서 가정불화로 아버지 찔러 숨지게 한 60대 아들 '스토킹하고 음란 영상 보여주고' 30대 남성 징역 6개월 "돈 낸 줄 착각"…부천 호프집 '먹튀 사건' 내사종결 ‘포항 태풍 참사’ 숨진 중학생...보험금 못 받아 '눈시울' 쏠쏠정보 명품도 '중고거래'…판매자 된 나, 이것 반드시 지켜라[알아봅시다] '독감주사 맞자' 언제?…11월 중순·오후 3시 이전, 월화수[알아봅시다] 3년 만에 열리는 '여의도 불꽃축제'…교통통제는 어디? "마음 튼튼해지는 950가지 방법"…궁금하면 이곳 클릭 "저축성보험은 예·적금과 달라"…금감원, 소비자 유의 당부 서비스 전체보기 뉴스 실시간 정치 국제 경제 금융 산업 사회 수도권 지방 문화 IT·바이오 스포츠 연예 포토 뉴시스 TV 광장 기자수첩 스토리칼럼 아트클럽 기고 인터뷰 기획특집 섹션코너 데일리뉴시스 인사 부고 동정 포토·영상 국내사진 영상 해외사진 테마포토 그래픽 패밀리사이트 프라임뉴스 위클리뉴시스 모바일앱서비스 Android IOS 제휴사 AP통신 新華通訊 회사소개 광고 · 제휴 문의 제휴사 안내 콘텐츠 판매 저작권 규약 고충처리 기사제보 이용약관 개인정보 · 청소년보호정책 개인정보처리방침 알립니다. 대표이사 : 김형기 주소 : 서울 중구 퇴계로 173 남산스퀘어빌딩 (구 극동빌딩) 12층 사업자등록번호 : 102-81-36588 발행인 : 김형기 편집인 : 김형기 고충처리인 : 박상권 통신판매업신고 : 서울중구 0398호 문의 02-721-7400 webmaster@newsis.com 뉴시스의 모든 콘텐츠는 저작권법의 보호를 받는 바, 무단 전재ㆍ복사ㆍ배포를 금합니다. Copyright © NEWSIS.COM All rights reserved. 99+</t>
+  </si>
+  <si>
+    <t>송하진 지사는 전북관광 활성화…산하기관은 제주도로 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 전북 송하진 지사는 전북관광 활성화…산하기관은 제주도로 전북농업기술원, 제주도서 2박3일 역량강화 교육 (전주=뉴스1) 김동규 기자					| 2017-08-14 11:31 송고 | 2017-08-14 11:49 최종수정 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 전라북도청사.2016.9.20/뉴스1 © News1 문요한 기자 전북농업기술원이 제주도에서 14개 시·군 농업기술센터 공무원들의 역량강화 교육을 실시할 예정이어서 눈총을 받고 있다.송하진 전북도지사가 관광활성화를 위해 ‘전북 투어패스 카드’에 전력을 기울이고 있는 시점이어서 도정 방침에 어긋난다는 지적이다.전북지역 대부분 자치단체들은 연찬회 등을 도내에서 개최하고 투어패스 체험을 하는 등 관광활성화에 힘쓰고 있다.전북농업기술원은 8월31일부터 9월2일까지 2박3일간 제주도에서 지원기획분야 역량강화 교육을 실시할 예정이다.농업기술원은 이와 관련해서 10일 14개 시·군 농업기술센터로 공문을 보내 각 2명씩 참석토록 했다.이번 역량강화 교육의 목적은 도·시·군간 지원기획분야 담당자의 현안사업을 공유하고 소통을 통한 지도사업 활성화를 위해서다.또 타 지역 우수 6차산업 및 농촌자연경관 관광상품화 등 탐방을 통한 전북농업 활성화를 모색한다는 취지다.일정은 6차산업 체험장 벤치마킹, 온난화연구소 방문, 농촌관광 탐방, 올레길 탐방, 교육 등이다.참여 공무원들의 의견을 수렴하고 제주도측의 협조 요구가 있어 장소를 제주도로 정했다는 것이 농업기술원 관계자의 설명이다.농업기술원 관계자는 뉴스1과 통화에서 "5월부터 역량강화 교육 계획을 세웠고 기획담당자들에게 장소를 추천을 받았다"며 "전국 기술원 국장 회의에서 제주도측이 타 자치단체의 연찬회를 제주도에서 개최해 달라는 협조 요구가 있었다"고 밝혔다.그러나 농업기술원과 기술센터 공무원들이 전북지역의 6차산업과 우수 농촌관광지역을 공유하면서 역량강화 교육을 할 수도 있는데도  제주도로 일정을 짠 것은 외유성이라는 의견도 있다.A자치단체 공무원 B씨는 "우리는 전북관광 활성화를 위해 더위에도 투어패스 체험을 하고 있는데 농업기술원은 도정 방침에 뒷전이다"며 "역량강화 교육 등 워크숍을 핑계로 제주도 일정을 계획한 것은 바람직하지 않은 것 같다"고 지적했다. kdg2066@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 이런 일&amp;저런 일 공효진♥케빈오, 뉴욕서 결혼식…정려원 참석 김수미 "김용건 늦둥이 아들 지 아범 딱 닮아" 클럽 앞 멈춘 소방차 '비키니 여성' 하차…왜? 강민경, 65억 건물로 쇼핑몰 이사 "직원 눈물" 신혜성, 도난차량서 음주측정 거부하다 체포 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 프로농구 10개구단 감독들이 뽑은 새 시즌 우승후보는? KT… 2위 SK '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주도, 싱가포르 개별관광객 유치 본격화-국민일보 시사 시사 &gt; 전체기사 제주도, 싱가포르 개별관광객 유치 본격화 입력 : 2017-08-16 15:44 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 개별관광객 비중이 큰 싱가포르 관광시장을 겨냥해 청정 제주를 홍보하기 위한 관광마케팅 활동이 본격화되고 있다. 제주도·제주관광공사는 최근 싱가포르 썬텍시티 컨벤션센터에서 열린 ‘NATAS Holidays 2017 박람회’에 참가해 일반 소비자를 대상으로 제주관광 홍보활동을 전개했다고 16일 밝혔다. NATAS는 싱가포르 여행사협회(National Association of Travel Agents Singapore)를 말한다. 박람회에 참가한 제주관광 홍보팀은 싱가포르 개별관광객들을 대상으로 제주 세계자연유산 및 신규 콘텐츠, 교통정보, ‘디스커버 뉴 제주 캠페인’ 등의 정보를 적극 알렸다. 개별관광객의 비중이 80% 이상인 싱가포르 소비자들은 제주 자유여행에 필요한 모든 정보를 제주관광통합정보시스템인 비짓제주(visitjeju.net)를 통해 제공받을 수 있는 점에 호응을 나타냈다. 특히 이들 소비자들은 자가운전을 통한 제주여행은 물론 대중교통시스템 개편에 맞춰 제주 전역의 주요 관광지를 버스로 여행할 수 있는데 만족감을 드러냈다. 이와함께 9월부터 외국인 개별관광객에게 다양한 편의와 서비스를 제공하는 ‘디스커버 뉴 제주 캠페인’에 큰 기대를 나타냈다. 디스커버 뉴 제주 캠페인은 제주도내 300개 이상의 업체가 중심이 돼 외국인 개별관광객을 위한 할인행사·추가서비스·기념품 증정 등 다양한 혜택을 제공하는 환대 캠페인이다. 제주관광공사 관계자는 “싱가포르 내에서 제주에 대한 인지도가 높아지고 있으며 소비자들은 구체적인 여행정보를 제공받아 보다 스마트한 제주여행을 즐기고자 했다”며 “무엇보다 유네스코 세계자연유산 등재 10주년을 맞은 한라산, 성산일출봉, 거문오름용암동굴계 등 제주의 자연에 큰 관심을 보였다”고 밝혔다. 제주관광공사는 겨울과 봄철 방한 수요가 큰 아세안 아웃바운드 시장을 고려해, 개별관광객 비중이 높은 싱가포르와 말레이시아 관광객을 대상으로 제주의 다양한 콘텐츠를 소개하는 마케팅을 지속적으로 펼쳐나갈 예정이다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 포항시, 자연재난 피해 공동주택 복구비용 최대 5억원 지원 성 상납 무고 혐의 이준석, 2차 경찰 소환… 경찰 “조만간 결론” 포천시, 신재생에너지 융복합지원사업 공모 선정 특별법 개정 “너무 느리다”…제주도, 포괄적 권한이양 추진 남양주시 ‘불법 주정차 단속 CCTV 통합 시스템’ 운영 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야”</t>
+  </si>
+  <si>
+    <t>"관광객은 하루 2번만?" 제주도 장애인콜택시 횟수 제한에 반발한 장애인들 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS "관광객은 하루 2번만?" 제주도 장애인콜택시 횟수 제한에 반발한 장애인들 입력 : 2017-08-14 16:10:00 수정 : 2017-08-14 16:29:38 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 장애인 단체들이 관광객의 장애인 교통수단 이용을 일2회로 제한한 ‘제주도의 장애인 이동권 제한 정책’에 반기를 들었다.서울장애인차별철폐연대를 비롯한 장애인 관련 9개 단체는 ‘제주도 장애인 이동권 제한 공동대책위원회(이하 공동위)’를 구성하고 14일 서울 중구 국가인권위원회 앞에서 기자회견을 열었다.공동위에 따르면 제주도는 지난 5월 장애인콜택시 등 장애인 특별교통수단을 하루에 제주도민 4회, 외지인 2회만 이용할 수 있도록 제한을 뒀다. 전에는 외지인도 하루 4회 이용할 수 있었지만 2회로 제한을 둔 것이다.공동위는 “제주도는 제주도민인 장애인들이 이용에 제한을 겪고 있기 때문에 어쩔 수 없다는 입장”이라면서 “이동수단의 가동률이나 방법의 확장을 통해 문제를 해결하지 않고 이용횟수의 차별을 당연시하는 것은 제주도민 장애인과 외지에서 방문하는 장애인 간의 갈등을 유발하는 것”이라고 주장했다.공동위는 법적인 문제도 제기했다. 공동위는 “교통약자의 이동증진에 관한 법률 제16조 제5항에 따르면 특별교통수단 운영자가 거주지에 따라 이용을 제한하지 못하도록 하고 있다”면서 “장애인차별금지법에 의해서도 장애인이 교통수단을 이용함에 있어서 차별을 받아선 안된다”고 설명했다.상상행동 장애와 여성 마실 김광이 대표는 "제주도는 저상버스도 2대밖에 안돼 콜택시까지 제한하면 사실상 장애인들은 제주도에 관광을 오지 말라는 것과 같다"며 "도민들도 4회로 이용 제한을 받고 있고 이런 횟수를 제한하는 자체가 차별이다"라고 말했다.공동위는 기자회견을 통해 이번 사안의 해결방안을 촉구하고 ‘제주도 장애인 특별교통수단 이용 제한 폐지’에 대한 내용이 담긴 진정서를 인권위에 제출했다.안승진 기자 prodo@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20170814001977 0101080100000 0 2017-08-14 16:30:36 2017-08-14 16:29:38 0 "관광객은 하루 2번만?" 제주도 장애인콜택시 횟수 제한에 반발한 장애인들 세계닷컴 안승진 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>[9월 제주도 가볼만한 곳] 아늑한 엄마 품같은 '동부지역 관광지 순환버스' &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [9월 제주도 가볼만한 곳] 아늑한 엄마 품같은 '동부지역 관광지 순환버스' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [9월 제주도 가볼만한 곳] 아늑한 엄마 품같은 '동부지역 관광지 순환버스' 기자명 전서현 입력 2017.08.17 08:50 수정 2017.11.06 16:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 본격적인 여행철인 가을이다. 9월 제주도 갈만한 곳을 미리미리 점검해두고 가벼운 마음으로 떠나보자. 아이와 함께, 연인들의 데이트 코스로, 가족 단위의 가족 여행 그리고 가족같은 친구들과  추억을 남길 수 있는 동부지역 관광지 순환버스 투어를 추천한다. ▲ ©제주관광공사 제주 동부 중산간은 부드럽고 아늑해 엄마 품에 안기는 듯한 느낌을 갖게 되는 곳이다.이 지역 역시 동부지역 관광지 순환버스가 생긴 덕택에 발이 편하게 돌아볼 수 있게 되었다. 대천환승센터에서 출발하는 관광지 순환버스요금은 1회 탑승에 1,200원이며 교통관광도우미가 탑승해 관광지 설명, 여행 정보 등 다양한 관광정보를 제공하게 된다. 동부지역관광지순환버스 지도 ©제주관광공사비자나무가 군락을 이루고 있는 비자림은 수령이 500~800년인 오래된 비자나무 2,800여 그루가 있으며 단일 수종의 숲으로는, 세계 최대 규모를 자랑하고 있는 숲이다.세계 최대의 미로테마파크인 메이즈랜드는 현무암과 랠란디 나무로 조성된 5km의 미로가 있어 아이들과도 함께 하기 좋은 곳이다. 철로위에서 자전거 페달을 밟으며 제주의 중산간을 탐험하고 싶다면 제주레일바이크도 좋다. 용눈이오름을 배경으로 약 4km에 걸쳐 운행된다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 백뱅 태양 "지금은 탑 곁에 있어주는 게 가장 큰 위로 아닐까"'군함도'·'택시운전사'에 없는 걸 가진 '혹성탈출: 종의 전쟁'의 매력은?[포토] 장동건 '조각이 걸어오네~'[MHN TV] 워너원 '불후의 명곡' 아수라장 출근길[포토] 김가람♥진률희 '페북스타 커플의 포토타임' 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광지 된 '효리네 민박집'...블로거+SNS, 인증 봇물 &lt; 컬처 &lt; 문화 &lt; 기사본문 - 한스경제(한국스포츠경제) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 ESG 경제 산업 생활 정치 사회 문화 스포츠 한스컷 Updated2022-10-11 10:50 (화) 로그인 로그인 회원가입 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 관광지 된 '효리네 민박집'...블로거+SNS, 인증 봇물 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 제주도 관광지 된 '효리네 민박집'...블로거+SNS, 인증 봇물 기자명 김의기 기자 입력 2017.08.20 17:08 댓글 0 바로가기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 닫기 '효리네 민박' 방문 후기 인증/사진=SNS, 네이버 블로그 [한국스포츠경제 김의기] '효리네 민박' 이상순이 거듭 사생활 침해 피해를 호소한 가운데 SNS 상에서는 '효리네 민박 방문' 후기는 여전히 이어지고 있다. 이상순은 자신의 SNS를 통해 "간곡한 부탁에도 불구하고, 여전히 많은 분들이 우리집에 찾아오고 있습니다"라고 고충을 토로했다. 그는 "지난번에도 말했지만, 이곳은 우리가 편히 쉬어야할 공간임에도 불구하고 집에 찾아와 담장안을 들여다보고, 사진을 찍는 사람들 때문에 맘편히 쉬지도, 마당에서 강아지들과 놀지도 못하고 있습니다"라며 "우리 뿐만 아니라 끊임없이 들어오는 차들과 사람들 때문에 이웃주민들도 불편을 호소하고 있습니다"라고 밝혔다.이상순은 앞서 JTBC '효리네 민박' 방송 후 끊임없이 찾아오는 관광객들 때문에 고통을 호소한 바 있다. 그럼에도 불구하고 이효리의 자택인 '효리네 민박' 촬영지를 찾아오는 제주 관광객들이 점차 증가하며, 이상순이 재차 입장을 밝히기에 이른 것이다. 실제로 최근 인스타그램과 블로그에서는 각종 인증 사례가 이어지고 있다. 이상순은 "여러분들은 즐거운 마음으로 오실지는 모르겠지만, 우리는 끊임없이 오는 차들과 관광객들 때문에 많은 스트레스를 받고 있습니다"라며 "다시 한 번 간곡히 부탁드립니다. 제발, 더 이상의 사생활 침해는 하지 말아주길 부탁드립니다. 우리부부, 집에서만은 편히 쉴 수 있도록 배려해주시길 바랍니다"라고 덧붙였다. 김의기 기자 show9027@sporbiz.co.kr 김의기 기자 show9027@sporbiz.co.kr 다른기사 보기 저작권자 © 한스경제(한국스포츠경제) 무단전재 및 재배포 금지 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 라이브리 댓글 작성을 위해 JavaScript를 활성화 해주세요 많이 본 뉴스 1 보험사, 기후위기 손실평가 등...본격적인 ESG경영 나서야 2 [김동용의 수소경제 톺아보기] 가스공사, '수소 기업'으로 전환 속도…충남도, 수소 전문기업 육성 박차 3 전 연령 대상 사회공헌 통해 ESG경영 나선 JB금융그룹 4 롯데건설, 층간소음 저감 기술 개발 박차 5 포스코-LG엔솔, 이차전지 사업 맞손 6 연준의 긴축 지속...뉴욕 3대 지수 하락 마감 7 [아파트 Hot&amp;Cold] “매물 ‘러시’”...경기 성남시 수정구 아파트값 한 주 만에 ‘곤두박질’ 8 [ESG포커스] ‘환경’지키는 뷰티업계, 공병수거에 리필패키지까지 ‘탈플라스틱’ 9 [부고] 정승희 IBK기업은행 남시화지점장 부친상 10 코레일·현대로템, KTX-이음 승차감 개선 비용 '떠넘기기' 한스경제 PICK 생활 [ESG포커스] ‘환경’지키는 뷰티업계, 공병수거에 리필패키지까지 ‘탈플라스틱’ 스포츠 [긴급진단①] 과정부터 이상했다? 국감으로 번진 KLPGT 중계권 논란 ESG [김동용의 수소경제 톺아보기] 가스공사, '수소 기업'으로 전환 속도…충남도, 수소 전문기업 육성 박차 경제 여풍 거세진 은행권…‘MZ 묻고 쉬코노미’에 집중 산업 ‘美 반도체 규제’에 업계 긴장…정부 “영향 제한적” 주요뉴스 ESG 세계 항공업계, 전기항공기 도입에 속도..."중국은 글쎄" 증권 코스피 장 초반 2%대 하락, 2170대로…코스닥은 3%대 하락 기업·CEO 법인세 3.3%p 인하…GDP 10년간 연평균 1.4% 증가 효과 건설·중공업 [아파트 Hot&amp;Cold] “매물 ‘러시’”...경기 성남시 수정구 아파트값 한 주 만에 ‘곤두박질’ 사회 일반 오늘부터 동절기 코로나19 추가접종 시작…당일 접종 가능 하단영역 하단메뉴 언론사소개 언론윤리 공정보도 독자문의 고충처리인 광고·제휴·콘텐츠문의 이용약관 개인정보취급방침 청소년보호정책 오시는길 매체정보 서울특별시 종로구 율곡로2길 7 서머셋팰리스서울 4층 대표전화 : 02-725-6007 팩스 : 02-725-3939 법인명 : ㈜한국뉴미디어 제호명 : 한스경제(한국스포츠경제) 등록번호 : 서울 아 03577 등록일 : 2015-02-09 발행일 : 2015-02-23 발행·편집인 : 송진현 편집국장·청소년보호책임자 : 송진현 한스경제(한국스포츠경제) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 한스경제(한국스포츠경제). All rights reserved. mail to news@sporbiz.co.kr 위로 전체메뉴 전체기사 ESG 전체 기업·CEO 공기업 지방자치단체 경제 전체 경제 일반 금융 증권 산업 전체 기업·CEO 전자·통신 IT·게임 자동차·물류 건설·중공업 바이오 에너지 생활 전체 유통 식·음료 패션·뷰티 정치 전체 정치 일반 사회 전체 사회 일반 지역 교육 전국 문화 전체 컬처 연예 스포츠 전체 스포츠 일반 스포츠 종합 야구 축구 골프 여행ㆍ레저 2021 한국컵 2020 도쿄올림픽 2022 한국컵 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광위장입국 중국인 불법체류자 검거 &lt; 사건사고 &lt; 사회 &lt; 기사본문 - 충청투데이 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 Log in facebook twitter youtube rss 전체메뉴 버튼 2022-10-11(화) 헤드라인 점차 늙어가는 충남 농촌… 청년농부 육성 시급 박범인 금산군수 "공직자와 힘 모아 자생력 높이겠다" 서산 천수만에 겨울철새 찾아왔다 관리망 허술한 대전 소하천… 관리 잘 된 하천까지 오염시킨다 與野 대립중인 중앙 정치권… 대전은 ‘협치 분위기’ 고조 답답한 박스권… 충청권 與野 정당 지지도 30% 대 갇혔다 대덕특구, 연구집적단지 넘어 ‘문화의 장’으로 시세차익 때문에… 충청권 주택연금 중도해지 급증 박상돈 천안시장 "시민과 소통하고 현장 목소리 귀 기울일 것" 송인헌 괴산군수 변화·발전 위해 ‘잰걸음’ 기사검색 검색 본문영역 현재위치 홈 사회 사건사고 제주도 관광위장입국 중국인 불법체류자 검거 이전 기사보기 다음 기사보기 기자명 이봉 기자 승인 2017년 08월 14일 19시 29분 온라인 2017년 08월 15일 화요일 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 아산경찰서 온천지구대는 제주도 관광으로 위장입국한 뒤 체류지역 확대허가를 받지 않고 이탈해 불법체류로 수배중인 30대 중국인 A씨를 검거했다. 온천지구대 정현호 경사와 조하연 순경은 지난 11일 오후 1시경, 전남청 국제범죄수사대로부터 아산시 온천동의 PC방에 제주도에 관광위장 입국으로 인한 영장발부 수배중인 중국인 불법체류자가 있다는 공조요청을 받아 신속히 현장 출동해 도주로 등 차단한 뒤, 게임을 하고 있던 피의자를 검거했다. A씨는 2013년경 제주도에 입국한 뒤, 이탈해서 현재까지 특정된 주거없이 공사현장을 전전하며 생활해온 것으로 알려졌다. 오승학 온천지구대장은 "불법체류등으로 인한 외국인 범죄가 늘어나면서 시민들의 걱정이 많은데 신속한 공조와 출동으로 피의자를 검거했다"면서 "외국인범죄 예방 및 불법체류근절에 더욱더 노력 하겠다"고 말했다. 아산=이봉 기자 lb1120@cctoday.co.kr 이봉 기자 lb1120@cctoday.co.kr 기자 프로필 보기 저작권자 © 충청투데이 무단전재 및 재배포 금지 주요기사 점차 늙어가는 충남 농촌… 청년농부 육성 시급 박범인 금산군수 "공직자와 힘 모아 자생력 높이겠다" 서산 천수만에 겨울철새 찾아왔다 관리망 허술한 대전 소하천… 관리 잘 된 하천까지 오염시킨다 與野 대립중인 중앙 정치권… 대전은 ‘협치 분위기’ 고조 답답한 박스권… 충청권 與野 정당 지지도 30% 대 갇혔다 Tweet 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 TODAY기획 시리즈 1. [체육발전] 프로시대 본격 도래… 청주 70년대 인프라 언제까지? 2. [안전사고] 고령 운전자 사고 느는데… 저조한 면허 반납률 어쩌나 3. [현안점검] 尹정부 첫 국정감사… 산적한 지역 현안, 반드시 테이블에 올려야 같이가U 대국민힐링프로젝트 [같이가U] 과거와 현재가 공존하는 도시, 가을에는 부여 한 바퀴 [같이가U] 몸의 피로는 온천으로… 마음의 피로는 옥천으로 [같이가U] 세상 볼게 넘치는 세종, 올 여름 아이와 함께 [같이가U] 올 여름 단 꿈에 빠지게 될 여행지 단양 뉴스이슈 저출산 흐름에 나날이 줄어드는 산부인과·조리원 충남 사립 유아교육비 지원 중단 위기… 학부모 부담 커지나 법 바뀌어도… 충청권 청소년 무면허 전동킥보드 사고 ‘쾅쾅’ 수도권으로 떠나는 의사·간호사… 충청 공공의료 공백 어쩌나 데이터뉴스룸 점차 늙어가는 충남 농촌… 청년농부 육성 시급 충청권 추정치매환자 10만명 넘었다 추석도 지났는데… ‘금추’된 배춧값 요지부동 대학 졸업했지만 30대엔 경력단절 육아맘… ‘씁쓸’ 최신뉴스 부스 살펴보는 UCLG 총회 참가자들 점차 늙어가는 충남 농촌… 청년농부 육성 시급 [아줌마 대축제] 마법같은 즐거움… 기적의 마술사 홍수복 공연 [아줌마 대축제] 남녀노소 신나는 공연으로 하나 [아줌마 대축제 화제부스] 단양 흑마늘·아로니아 떡… ‘벌떡’ 일어나는 맛 포토뉴스 부스 살펴보는 UCLG 총회 참가자들 점차 늙어가는 충남 농촌… 청년농부 육성 시급 [아줌마 대축제] 마법같은 즐거움… 기적의 마술사 홍수복 공연 [아줌마 대축제] 남녀노소 신나는 공연으로 하나 문화 스포츠 [아줌마 대축제] 마법같은 즐거움… 기적의 마술사 홍수복 공연 [충청투데이 권혁조 기자] 제20회 아줌마 대축제에서는 다채로운 공연이 관람객들의 눈길을 사로잡았다.이 중 ‘기적의 마술사’ 홍수복(73) 씨는 비가 오는 날씨에도 신기한 마술 공... [아줌마 대축제] 남녀노소 신나는 공연으로 하나 [충청투데이 장심결] ‘제20회 아줌마대축제-우리농수산물큰잔치’에서 신나는 춤을 통해 전 연령층이 소통하는 세대 공감 댄스 페스티발이 성황리에 개최됐다.축제 마지막 날인 9일 열린... [아줌마 대축제 화제부스] 단양 흑마늘·아로니아 떡… ‘벌떡’ 일어나는 맛 [충청투데이 윤경식 기자] 단양군이 지역 특산물인 흑마늘과 아로니아를 활용한 찹쌀떡과 인절미로 제20회 아줌마대축제-우리농수산물큰잔치에서 많은 방문객의 이목을 끌었다. 특히 몸에 ... 3년 연속 최하위 한화이글스 내년엔 다를까 [충청투데이 정민혜 기자] 한화이글스가 지난해에 이어 올해도 리그 최하위인 ‘10위’로 시즌을 마감했다.7일 KBO등에 따르면 한화는 3년 연속 3할대 승률로 리그 순위 최하위, ... 한화이글스, 키움히어로즈와의 마지막 홈경기 연장전 끝에 3-2 승리 [충청투데이 정민혜 기자] 한화이글스가 연장 11회까지 가는 혈투 끝에 마지막 홈경기를 승리로 장식했다.한화이글스는 6일 대전 한화생명이글스파크에서 열린 2022 신한은행 쏠(SO... 대전이 발굴한 탁구 꿈나무 세계에 이름 알렸다 [충청투데이 정민혜 기자] 대전시체육회가 꿈드림 프로젝트로 발굴한 탁구 꿈나무 권혁(동산중2·사진) 선수가 ‘2022 WTT 유스 콘텐더 포드고리차’에서 U-17, U-15 단식을... 충청투데이소개 사회공헌 구독신청 광고안내 제휴안내 독자위원회 편집위원회 고충처리인 개인정보취급방침 청소년보호정책 모바일웹 매체정보 본사 우)35273 대전광역시 서구 갈마중로30번길 67 (갈마동 400) 충청투데이 대표전화 : 042)380-7000 팩스 : 042)380-7019 충북본사 우)28468 충북 청주시 흥덕구 흥덕로 159(운천동 1373) 충청투데이 대표전화 : 043)263-0009 팩스 : 043)263-2297 회사명 : (주)충청투데이 사업자등록번호 : 314-81-46317 정기간행물 등록번호 : 대전 가 00002 등록일자 : 2001-12-08 대표이사·발행인·편집인 : 박신용 청소년보호책임자 : 박신용 Copyright © 2022 충청투데이. All rights reserved. mail to cctoday@cctoday.co.kr .. 위로 전체메뉴 전체기사 뉴스 전체 정치/행정 경제/과학 사회 스포츠 문화 사람들 종합 오피니언 대전 전체 대전시정 서구 중구 동구 대덕구 유성구 충남 전체 충남도정 천안시 공주시 보령시 아산시 서산시 논산시 금산군 부여군 서천군 청양군 홍성군 예산군 태안군 당진시 계룡시 충북 전체 충북도정 청주 충주 제천 음성 진천 괴산 증평 청원 보은 옥천 영동 단양 세종in 충투TV 오피니언 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[9월 제주도 가볼만한 곳] 투박하고 야생적인 제주의 창밖 풍경 '서부지역 관광지 순환버스' &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [9월 제주도 가볼만한 곳] 투박하고 야생적인 제주의 창밖 풍경 '서부지역 관광지 순환버스' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [9월 제주도 가볼만한 곳] 투박하고 야생적인 제주의 창밖 풍경 '서부지역 관광지 순환버스' 기자명 전서현 입력 2017.08.17 08:43 수정 2017.11.06 16:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 본격적인 여행철인 가을이다. 9월 제주도 갈만한 곳을 미리미리 점검해두고 가벼운 마음으로 떠나보자. 아이와 함께, 연인들의 데이트 코스로, 가족 단위의 가족 여행 그리고 가족같은 친구들과  추억을 남길 수 있는 서부지역 관광지 순환버스 투어를 추천한다. ▲ ©제주관광공사 제주 서부 중산간이 손에 잡힐 듯 성큼 다가왔다. 대중교통으로 접근하기 어려웠던 제주 서부 중산간을 이제는 버스를 타고 여행할 수 있게 되었기 때문이다.동부와는 달리 투박하고 야생적인 제주 서부의 속살을 탐험하고 싶다면, 동광환승센터에서 서부지역 관광지 순환버스를 타면 된다. 순환버스 요금은 1회 승차시 1,200원이다. 버스를 잘 이용하면 마을 구석구석과 주요 관광지들을 모두 돌아볼 수 있다. ▲ 서부지역관광지순환버스 지도 ©제주관광공사1968년 분재를 재배하는 농장으로 출발해 현재 국가지정 민간정원 1호인 생각하는 정원은 가장 제주적인 모습을 갖고 있으며 아름다운 정원으로 손꼽힌다.중산간의 자연환경을 잘 담아낸 건축물로도 유명한 차 박물관 오설록과 산책로, 그 옆에 있는 서광차밭은 전통과 현대가 조화를 이뤄낸 모습으로 제주를 담고 있다. 인공호수 주변으로 다양한 꽃과 나무가 아름다운 노리매공원의 9월은 가자니아와 꽃잔디, 야생화로 가득하다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 백뱅 태양 "지금은 탑 곁에 있어주는 게 가장 큰 위로 아닐까"'군함도'·'택시운전사'에 없는 걸 가진 '혹성탈출: 종의 전쟁'의 매력은?[포토] 장동건 '조각이 걸어오네~'[MHN TV] 워너원 '불후의 명곡' 아수라장 출근길[포토] 김가람♥진률희 '페북스타 커플의 포토타임' 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[9월 제주도 가볼만한 곳] 예술과 관광을 동시에 음미...'저지리 마을' 버스체계 개편으로 접근성 좋아져 &lt; 리빙 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 11:46 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 [9월 제주도 가볼만한 곳] 예술과 관광을 동시에 음미...'저지리 마을' 버스체계 개편으로 접근성 좋아져 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 리빙 [9월 제주도 가볼만한 곳] 예술과 관광을 동시에 음미...'저지리 마을' 버스체계 개편으로 접근성 좋아져 기자명 전서현 입력 2017.08.17 08:17 수정 2017.11.06 16:43 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [문화뉴스 MHN 전서현 기자] 본격적인 여행철인 가을이다. 9월 제주도 갈만한 곳을 미리미리 점검해두고 가벼운 마음으로 떠나보자. ▲ 제주 한경면에 위치한 저지리 마을은 예술과 관광을 동시에 즐길 수 있어 아이와 함께 갈만한 곳을 찾는이들과 제주 데이트 코스로도 적극 추천한다 ©제주관광공사 예술인 마을이라는 독특한 품새를 갖게 된 저지리. 벽화와 예술작품, 작가의 생활이 공존하며 곳곳에 예술이 입혀진 이 마을은 산책마저 예술이 될 것 같은 작고 아름다운 마을이다.한경면 해발 120미터 지대에 위치한 이곳은 예술인들에게 마을을 개방해 지역문화예술 발전과 문화관광 콘텐츠 활성화를 위해 만들어진 마을로 저지문화예술인마을은 저지리의 중심에 있다.아름다운 숲 전국 대상을 받은 저지오름에 오르면 마을 전체를 조망해볼 수 있다. 마을에는 제주현대미술관, 야외전시장, 갤러리 등이 있어 천천히 걸으며 마을 곳곳에 있는 예술작품들을 돌아보기 좋다. 또 새로 건축된 독특하고 아름다운 건물들이 많아 한적하게 걸으며 눈과 마음을 힐링하기에 좋다. 갤러리나 공방은 비정기적으로 문을 열고 닫으니 참고할 것.예술과 관광을 동시에 즐길 수 있어 아이와 함께 갈만한 곳을 찾는이들과 제주 데이트 코스로도 적극 추천한다. 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 백뱅 태양 "지금은 탑 곁에 있어주는 게 가장 큰 위로 아닐까"'군함도'·'택시운전사'에 없는 걸 가진 '혹성탈출: 종의 전쟁'의 매력은?[포토] 장동건 '조각이 걸어오네~'[MHN TV] 워너원 '불후의 명곡' 아수라장 출근길[포토] 김가람♥진률희 '페북스타 커플의 포토타임' 전서현의 다른 기사 보기 전서현 jun0206@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 러브컨템포러리아트, 닥설랍 개인전 'Blurry Romanticism' 개최 [이상진 디렉터의 캘리문화] (6) 첩첩석중(疊疊石中) 아르코미술관, 대만과 한국-대만 비디오 교류 프로그램 개최 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 서귀포 중문단지 관광 후 흑돼지 맛집탐방까지 &lt; 보도자료 &lt; 기사본문 - 디트NEWS24 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 칼럼 디트TV 충남 naver-tv youtube facebook 로그인 검색버튼 기사검색 검색 본문영역 현재위치 홈 보도자료 제주도 서귀포 중문단지 관광 후 흑돼지 맛집탐방까지 이전 기사보기 다음 기사보기 기자명 박길수 기자 입력 2017.08.11 15:25 댓글 0 SNS 기사보내기 기사저장 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 이 기사를 공유합니다 카카오톡(으)로 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 입추가 지나가고 아직까지는 더위가 기승을 부리지만 가을이 성큼 다가온 듯한 요즘이다.제주도 서귀포 ‘중문관광단지’는 제주도의 대표적인 관광단지로 짧은 여행 일정이라면 중문단지 여행만 계획해도 제주도를 느끼기에 부족하지 않은 코스다.대포해안의 ‘지삿개 주상절리’와 ‘천제연 폭포’와 같은 거대하고 웅장한 자연경관과 각종 테마의 박물관, 또 ‘여미지식물원’과 ‘퍼시픽랜드’ 등 아이들과 함께라면 더 유익한 볼거리들이 많이 있다.먼저는 ‘지삿개 주상절리’로 가서 제주도에서만 느낄 수 있는 자연의 선물을 감상해보는 것은 어떨까. 오랜 세월을 거쳐 만들어진 주상절리의 웅장함은 보는 사람을 숨죽이게 만드는 위력을 지녔다. 그 거대한 아름다움 앞에 감동했다면 ‘천제연 폭포’로 향해보자.우리나라 어디에서도 보기 힘든 난대림 식물과 희귀 열대식물들을 볼 수 있고, 3단으로 쏟아져 내려오는 시원한 폭포는 요즘같이 더운 여름 자연이 주는 시원함을 만끽할 수 있다. 중문관광단지의 이곳저곳을 둘러보았다면 마지막은 역시 흑돼지 맛집에서의 든든한 식사 한끼다.중문동에 위치한 ‘복분자를 뿌린 흑돼지’ 전문점 ‘돈가득’은 최고급 제주산 흑돼지를 참숯에 굽는데, 굽기 직전 복분자를 뿌려 잡내를 없앤다.잘 구워진 흑돼지 근고기를 멜젓에 찍어먹고 또 다른 하나는 이곳만의 특제 양파절임과 함께 먹는 것이다. 양파과 간장 조합이 아닌 양파와 고춧가루, 식초를 넣은 깔끔한 맛으로 흑돼지와 함께 먹으면 환상의 조합을 자랑한다.‘돈가득’은 최근 복분자 흑돼지로 MBC에브리원 ‘맛있을 지도’에도 소개되어 MC 김경식과 사유리의 입맛을 사로잡으며 좋은 반응을 얻은 바 있다.두툼하고 푸짐한 흑돼지가 복분자의 달달한 향과 참숯 향을 은은하게 머금은 채 이곳의 특제 양파절임과 만났을 때의 그 맛이 궁금하다면 ‘돈가득’으로. 예약 및 문의 가능하다. 박길수 기자 bluysky2002@hanmail.net 기자의 다른기사 저작권자 © 디트NEWS24 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 추천뉴스 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 도로 위 달리는 기차 ‘트램’...안전대책 미비 축산물품질평가원 '특공 취지' 역행... 절반이 매도·임대 행렬 한화이글스 안방마님 최재훈 후계자 찾기 3파전 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 인기기사 주간 일간 1 우려가 현실로... 세종시 70대 여성 '전동 킥보드 사고'로 사망 2 충남 공주에 본사를 둔 우석건설 부도 3 대전 서남부종합스포츠타운, 연말 그린벨트 해제 요청 4 제1회 세종시 '어울링 바이크' 투어... 10일 정상 진행한다 5 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 6 10월 둘째 주 아파트 분양일정 7 대전 용문동 1·2·3구역 ‘둔산 더샵 엘리프’ 중소기업 근로자 특별공급 8 [관점] ‘이장우·김태흠 100일’ 권위주의 리더십의 한계 9 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 10 충남도, 사립유치원 교육비 지원 중단되나 1 제1회 세종시 '어울링 바이크 투어' 10일 성황리 마무리 2 세계시민 모인 대전 UCLG 총회, 역대 최대 규모 개막 3 대전 UCLG 총회 아태지부 '네트워킹의 밤' 성료 4 제13회 대전효문화뿌리축제, 3대가 함께 어우러진 안전한 축제로 마무리 5 유성구, 2022 앙코르 실버페스티벌 대성황 6 서산시·태안군, 행안부 특별교부세 55억 확보 7 동구 정다운어르신복지관 제26회 노인의날 기념 경로잔치 8 청양군청 이희진 선수 ‘1cm 차’ 명승부 은메달 9 서산 해미읍성축제 성료···민초의 삶 구현 호평 10 서구 월평2동, 2022 선사마을 축제 성료 실시간 댓글 최신댓글 댓글많은기사 1 뭐때문에 이렇게 화가 나신건지 도통 알수가없네;; 일단 한글부터 좀 제대로 익히시고 말씀을 해주시길.. 학교폭력은 학교랑 경찰이랑 상의하세요 2 자기들이 공무원 하겠다고 민간인 신분을 잠시 내려놓은것 아닌가요? 공무원 하겠다고 하는사람들이 하라는 봉사는 안하고 일은 저질러놓고 손해배상은 나몰라라 하고 말로만 떠들어대고 책임감도없고 일하기는 싫고 탁상 행정은 먼가요 그러고 일반인이 관련 법 일일이 찻자서 대응 하면 괄련 법령이 삭제(소멸) 되는걸 모르세요 발령 받아서 도망가면 끝 3 규종님 응원하고 있어요!! 달도효소 화이팅! 4 건강분야 컨셉 잘 선택하신것 같아요^ 오랫동안 잘 브랜드 만드시길 응원합니다. 5 달도효소^^ 김규종님 응원합니다^^~~ 6 규종오빠 항상 응원해요 7 SS501 김규종. 어제 살림남2 최수종 하희라편에도 나오던데, 최수종하고도 가까운 사이인가요? ㅎㅎ 달도효소는 무엇인가요? 궁금합니다. 아무튼 제2의인생 잘 시작하길 바랍니다 8 언제 이런걸준비했대요? 외디즈 달도효소^^ ㅋㅋ 규종님. 제 2의 사업도 대승하리라 믿어의심치 않습니다. 저도 펀딩하고 먹어볼께요.^^ 9 진짜맛있어요. 달도효소! 오빠의 진심이 느껴집니다.^^ 10 와디즈에 펀딩했어요. 오빠의 진심이 느껴지는 상세페이지 사업가로서도 성공하길 기도합니다 1 용산초 학부모들 "모듈러 교실 절대 반대, 등교 거부 하겠다" 2 건강식품 디렉터로 ‘인생 2막’ 연 SS501 김규종...명성 건 ‘달도효소’ 출시 3 이상래 대전시의장, 외유논란 사과...제주연수는 취소 4 "손주들 모듈러 교실로 꼭 보내라"..대전시의회, 시교육청 '난타' 5 지방거점국립대 1인당 교육비, 서울대 38.9% 수준 6 서철모 서구청장, 본회의장에서 대놓고 의회 무시? 7 위태로운 9대 대전시의회, 애꿎은 사무처에 화풀이? 8 박찬주 전 대장, 육사 이전 반대 동창회에 '결단' 촉구 9 논산에 둥지 튼 ‘한국유교문화진흥원’ 문 열었다 10 [부고] 박순영(지방분권 세종회의 회장) 씨 별세 하단영역 주요뉴스 대전신일여고, 지역 주민과 함께 하는 ' ‘Gallery 48’ 개관 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 도로 위 달리는 기차 ‘트램’...안전대책 미비 ‘강경젓갈이 상월고구마를 만나다!’ 12일 개막 논산시의회, 개원 100일 맞아...생활밀착형 의정활동 펼쳐 계룡세계군문화엑스포, 국내외 참전용사 및 가족 초청 행사 개최 전교조 대전지부 "갑질 부추기는 이장우 대전시장" 대전 서구 월평도서관 원데이 미디어 클래스 운영 대전 서구, 갈마·둔산·월평도서관 시니어 기초영어 운영 계룡시, 소규모 농업인 시설하우스 지원 추진 전체보기 Contact US 대표전화 042-471-8114 팩스 042-471-8120 제보전화 042-471-811424시간 긴급 기사·사건 제보(심야·공휴일) Infomation 매체소개 기사제보 광고문의 이용약관 언론윤리강령 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 장기간행물등 사업등록증 : 대전 아 00003 등록년월일 : 2001-08-01 제호 : 디트NEWS24 법인명 : (주)디트뉴스24 발행일 : 2001-08-01 발행인 : 박길수 편집인 : 김재현, 박길수 청소년보호책임자 : 박길수 대전광역시 서구 한밭대로 755 (삼성생명) 삼성생명빌딩 703호 대표전화 : 042-471-8114 팩스 : 042-471-8120 [ 디트뉴스24 ] 사업자번호 : 305-81-63253 통신판매업신고번호 : 제2011-대전중구-0243호 Copyright © 2022 디트NEWS24. All rights reserved. naver-tv youtube facebook 위로 전체메뉴 전체기사 정치 전체 국회/청와대 대전 충남 세종 행정 전체 대전 정부대전청사 세종 정부세종청사 충남 경제 전체 건설·부동산 유통 금융 경영·기업 이기업인 창업정보 과학·IT·드론 대전테크노파크 스마트혁신 사회 전체 법원/검찰 경찰 대전 세종 충남 교육문화스포츠 전체 교육일반 초중고 대학 문화일반 공연전시 문학소설 스포츠 책이야기 책 기부 캠페인 내부칼럼 전체 사설 디트의 눈 데스크칼럼 관점 김학용 칼럼 외부칼럼 전체 자문위원 칼럼 자유기고 오광영의 손스피커 대덕구 혁신로드 강영환의 로컬노믹스 여정권의 야구에 산다 한기원 칼럼 권혁필의 새로운 생각 성광진의 교육 통(痛) 이지완의 포토詩세이 김충남의 열두줄 인문학 라창호의 허튼소리 가기천의 확대경 박경은의 힐링에세이 송선헌의 시와 그림 김종진의 행복한 인성 이야기 김경훈의 공감소통 변해섭의 선거법 해설 리헌석의 예술계 산책 정승열의 세계 속으로 송진괄의 신비한 산야초 오정균의 세상만사 박한표의 사진 한 장 강영환의 정치 톺아보기 손창규의 과학 한의학 길공섭의 빛그림 황종규의 술이야기 윤영애의 명리 山海境 디트맛집 전체 대전 세종 충남 언론계 전체 언론계 소식 미디어비평 본사-알립니다 디트메디 전체 의료계 의료인 충남디트 전체 천안·아산 서산·태안·당진 공주·부여·청양 예산·홍성 논산·계룡·금산 보령·서천 디트사이언스 전체 대덕특구 출연연구기관 중기벤처기업 보도자료 전체 대전시 세종시 충남도 동구 중구 서구 유성구 대덕구 기타 사람들 전체 부음 결혼 인사 행사·모임 수상 동정 사람들 우리기관 홍보맨 사람이 미래다 웰빙 전체 여행과 레저 트렌드 TV/연예 전체 TV 연예 대전교육복지소식 전체 교육청소식 학교소식 학생기자단 정보마당 충남체육예술교육 전체 충남도교육청 지역교육지원청 학교소식 미분류 지난연재 기타 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 관광기념품 공모전 당선작 발표 &lt; 지역뉴스 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 지역뉴스 최종편집 2022-10-11 (화) 12:36 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 종합 제주시 서귀포시 읍면동 농사정보 본문영역 이전 기사보기 다음 기사보기 제주도 관광기념품 공모전 당선작 발표 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 지역뉴스 제주도 관광기념품 공모전 당선작 발표 기자명 이소진 기자 입력 2017.08.08 15:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제20회 제주특별자치도 관광기념품 공모전에서 박종호씨(섬이야기)의 '제주의 똘, 소라단지'와 김영훈씨(농업회사법인 ㈜일해)의 '몬딱 패밀리'가 부문별 금상을 수상했다.제주도와 제주관광협회는 지난3월28일부터 8월3일까지 제주도 관광기념품 공모전을 실시, 접수된 173개 작품 가운데 34점(전통기념품 17점, 현대기념점 17점)을 선정했다고 8일 밝혔다.부문별로 살펴보면 전통기념품 분야에서 박종호씨의 작품 포함 17점, 현대기념품에서 김영훈씨의 작품 포함 17점이 각각 영예를 안았다. '제주의 똘, 소라단지'는 실용성 부문에서 높은 점수를 받았으며 '몬딱 패밀리'는 감귤, 한라봉, 당근 등 제주특산품의 원재료 고유의 맛을 살렸다는 평가를 받았다.한편 이번 심사는 관광 및 기념품관련업계, 도외 전문가 등으로 구성된 9명의 심사위원을 위촉해 상품성, 디자인, 창의·실용성 등을 종합적으로 평가했다. 이소진 기자 lllrayoung@daum.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 5R 생활화 서귀포에서는 쓸모 없는 것이 없어요 ‘건강한 서귀포시 만들기 프로젝트’ 주민주도 재정비 추진 자립준비 혼자 고민 말고 ‘삼촌’한테 들으라 “어려운 이웃 소도리 해줍서, 같이 돕게 마씸” 제주 목조 펜션서 화재...투숙객 1명 구조 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 일본시장 활짝 제주관광 기대감속 우려도 5 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 6 [제민포럼] 테슬라와 한라산소주 7 내 영혼이 따뜻해지는 날 8 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>여름 휴가철 제주도 여행 필수코스는 서귀포, 중문 관광코스에 맛집 먹거리도 풍성 &lt; 컬처Life &lt; 기사본문 - 뉴스컬처 (NEWSCULTURE) 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집 : 2022-10-11 11:04 (화) 제보 이슈모아보기 로그인 전체메뉴 버튼 연예 공연·전시 이슈 포토·영상 컬처Life 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 검색버튼 기사검색 검색 인기뉴스 '스트릿 맨 파이터' 심사 논란 보아, 끝없는 악플에 지친 심경 토로[뉴스컬처★] [인터뷰]'환승연애2' PD "욕먹는 출연자 이해될 날 있을 것" 제니 '열애설' 뷔, 데이트 때 이 정도는 입어야 못 알아봐[뉴스컬처★] '해피니스' 한효주X박형식, 샤넬 행사에서 재회한 선남선녀[뉴스컬처★] 제주도 떠난 '환승연애2'…뒤늦게 진심 깨닫고 혼란 박민영 열애설 입장 유보 "촬영으로 확인 늦어져" '아이유 콘서트'에서 포착된 방탄소년단 정국···찐팬심 드러나는 올콘 목격담[뉴스컬처★] '백패커' 안보현, 백종원 공항에서 우연히 마주치는 사이[뉴스컬처★] 이달소 츄, 개인 인스타그램 개설...납득 가는 이유[뉴스컬처★] '아이돌의 재발견' 드라마·영화에서 연기력 인정받으며 배우로 승승장구[뉴스컬처★] naver post kakao twitter youtube instagram 본문영역 이전 기사보기 다음 기사보기 여름 휴가철 제주도 여행 필수코스는 서귀포, 중문 관광코스에 맛집 먹거리도 풍성 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 스크롤 이동 상태바 현재위치 홈 컬처Life 여름 휴가철 제주도 여행 필수코스는 서귀포, 중문 관광코스에 맛집 먹거리도 풍성 기자명 이정형 기자 입력 2017.08.11 06:43 수정 2018.09.21 22:01 댓글 0 SNS 기사보내기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 바로가기 메일보내기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 최근 여름철 휴가지로 제주도를 찾는 관광객이 더욱 늘어나는 모습이다. 국내 대표적이며 스테디셀러 여행지로서 관광명소가 많기 때문이다. 제주도에서도 천지연 폭포, 섭지코지, 성산일출봉 등 주요 관광지가 밀집한 서귀포시는 필수 여행코스로 주목받는 곳이다. 서귀포시는 주요 관광지뿐 아니라 우도 땅콩, 구좌읍의 당근 등 지역 내 특산물을 만나는 즐거움도 있다. 아울러 횟집 등 다채로운 먹거리의 맛집들이 즐비해 있어 미식가들의 식도락 여행지로도 제격이다. 특색 있는 지역 먹거리로 특별한 맛을 선보이는 것이다. 제주도 서귀포시 대포포구항 근처 ‘대포횟집’은 신선한 활어회와 다양한 해산물로 여행객들의 입맛을 만족시키는 곳이다.  이곳의 횟감은 다금바리부터 갓돔, 자바리, 흑돔, 꽃돔, 따돔까지 그 종류도 다양하다. “맛이 좋은 것들만 선보이기 때문에 어떤 메뉴를 주문해도 만족스럽게 즐길 수 있습니다. 입맛과 취향대로 고르시면 됩니다.” 제주 서귀포 중문 맛집 단골의 추천이다.  활어회를 선택하면 25여 가지 이상의 곁들임 메뉴가 제공되는데, 죽부터 샐러드, 초밥 등의 에피타이저를 시작으로 전복구이, 문어, 자리돔회, 고등어회, 옥돔구이, 갈치회 등 메인 요리로도 손색 없는 요리들이 차려진다. 실제로 다양한 곁들임 메뉴를 메인 요리로 착각하는 이들이 많다고 한다. 이어서 제공되는 쫄깃하고 두툼한 활어회에 또 한 번 놀라는 경우가 다반사라고도. 다 먹은 후에는 맑은 지리탕 또는 매운탕으로 든든하게 식사를 마무리하면 된다. “쾌적한 매장 컨디션과 깨끗한 수조관리로 신선한 회와 해산물을 제공하고 있습니다. 신선하고 다양한 회와 해산물요리를 맛보기를 원하는 고객들의 기대치를 만족시킬 수 있도록 맛과 품질 그리고 서비스에 최선을 다하겠습니다.” 30년을 여행객들의 입맛을 만족시켜온 대포횟집의 자부심이 묻은 말이다.  [뉴스컬처 360VR] [뉴스컬처 연예TV] [네이버 포스트] 이정형 기자 father6314@naver.com&lt;저작권자ⓒ뉴스컬처 무단전재 및 재배포 금지&gt; 저작권자 © 뉴스컬처 (NEWSCULTURE) 무단전재 및 재배포 금지 키워드 Tags #대포횟집 이정형 기자 father6314@naver.com 다른기사 보기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사저장 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 포토뉴스 빈지노, 브루클린의 자유로운 감성(화보) 아이유, 가을의 고혹미(화보) 아이유X손석구, 겨울을 준비하는 커플(화보) 뉴진스, 생기 넘치는 소녀들(화보) 최수영, 의류 모델 발탁될만한 비율(화보) 정호연, 모델 출신의 능수능란 포즈(화보) 인기뉴스 1 '비밀남녀' 미켈 비밀 힌트 공개 "끝이 정해져 있다" 2 '아일랜드' 악에 대항하는 김남길·이다희·차은우·성준 3 '나는 SOLO' 10기 커플 탄생 목격한 3MC의 경악 4 이제훈, 남궁민 드라마에 또 등장 5 [인터뷰①]'브론테' 강지혜·이봄소리·허혜진 "내가 아니면 질투날 것 같은 극" 포토뉴스 [포토]‘인간 디올’ 블랙핑크 지수, 넘사벽 비주얼의 매력 뉴진스, 핫한 패션 아이콘(화보) NCT 쇼타로X성찬, 클래식 무드(화보) [NC포토]'브론테' 송영미, 투명함 머금고 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로 309 (삼성제일빌딩) 12F 대표전화 : 02-557-5321 팩스 : 02-557-5322 청소년보호책임자 : 신명근 법인명 : (주)케이뉴스 제호 : 뉴스컬처 (NEWSCULTURE) 등록번호 : 서울,아02083 등록일 : 2012-04-19 발행일 : 2012-04-19 발행·편집인 : 신명근 뉴스컬처 (NEWSCULTURE) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스컬처 (NEWSCULTURE). All rights reserved. mail to newsculture@knewscorp.co.kr 위로 전체메뉴 전체기사 연예 공연·전시 이슈 포토·영상 컬처Life 전체 여행문화 패션뷰티 헬스푸드 미술문화 PEOPLE 경제 알림 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 말레이서 제주관광 홍보 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 12:45 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시, 자원순환 생활쓰레기 배출시책 추진 서귀포시는 민선8기 시정 목표인 ‘청정 건강 도시, 행복 서귀포시’의 성공적인 추진을 위해 시민에게 환영받는 친환경 자원순환 쓰레기 배출 처리 시책을 추진하고 있다고 11일 밝혔다... SNS P  D  F 지면보기 이전 다음 제주도관광협회 말레이서 제주관광 홍보 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회 말레이서 제주관광 홍보 정용기 기자 승인 2017.08.14 15:02 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 레저·스포츠 활용 관광상품 등 호응 [제주일보=정용기 기자] 제주특별자치도관광협회(회장 김영진)는 지난 11일부터 13일까지 말레이시아 쿠알라룸프르에서 개최된 ‘2017 MITM 여행 박람회’에 참가해 개별관광객과 여행업계를 대상으로 비즈니스 세일즈를 추진했다고 14일 밝혔다.이번 MITM 여행 박람회에는 30개 국가, 60개 업체가 참여해 성황을 이뤘다. 제주도관광협회는 박람회장에서 개별관광객과, 특수목적관광객 등 소비자를 대상으로 제주관광 홍보부스를 운영했다.박람회에 참가한 도내 관광사업체는 개별관광객을 대상으로 관광 상품 예약·접수를 성사시켰으며, Play K-pop 매직벤치 행사 등의 프로그램도 현지 한류 팬들의 호응을 얻었다.또 다음달 현지 화교 전문 언론사인 ‘Sin Chew Daily’와 공동으로 레저·스포츠를 활용한 관광 상품을 알리기 위해 말레이시아차이니즈관광협회와 업무협약을 체결할 계획이다.제주도관광협회 관계자는 “동남아시장 개별관광객 및 레저·스포츠를 활용한 목적관광객 유치를 위해 도내 관광사업체와 직거래를 구축할 수 있는 비즈니스 마케팅을 적극적으로 추진하겠다”고 말했다. 정용기 기자  brave@jejuilbo.net Tag #N 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 정용기 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 10"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>제주도, 관광성수기 전기차 충전시설 점검…이용자불편 최소화 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도, 관광성수기 전기차 충전시설 점검…이용자불편 최소화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도, 관광성수기 전기차 충전시설 점검…이용자불편 최소화 기자명 고병수 기자 입력 2017.08.03 11:01 수정 2017.08.03 11:02 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수 기자 = 제주특별자치도는 여름관광 성수기를 맞아 도내 충전시설에 대해 충전기 제조업체와 합동 점검해 전기차 이용자들의 불편을 최소화한다고 3일 밝혔다.현재 도내에는 648기의 개방형 충전기가 운영되고 있다는 것,충전기에 대한 자체 점검결과 일부 급속충전기가 계속되는 무더위로 인해 충전 속도가 현저히 느려지는 현상이 발생해 충전기 제조업체와 협력해 부품 교체 등을 통해 개선해 나가고 있다.또한 환경부도 동일한 증상이 발생함에 따라 전국적으로 빠르게 개선해 나가고 있다.특히 24시간 운영되는 EV콜센터와는 충전기 운영상태에 대해 상호 유기적으로 정보를 공유해 이용자 안내에 만전을 기하고 있다. 한편 제주도는 '제주 전기차 충전소 안내' 모바일 앱 기능 업그레이드 및 아이폰 이용자를 위한 IOS버전 앱 개발을 구축해 9월 이후에는 충전기 이용에 대한 다양한 서비스를 이용할 수 있다.그리고 충전인프라 구축지점에 대해 위치 안내표지판 설치로 전기차 이용자 사용편의를 제공하기 위해 현재 구축지점에 대해 설치설계중이고, 환경부 급속충전기 49기에 대해 8월중 위치표지판 설치가 마무리된다.김현민 경제통상일자리국장은 "전기차 보급을 성공적으로 추진하기 위해 전기차의 주행성능도 중요하지만 그동안 지속적으로 문제가 되어 왔던 충전기 이용에 대한 불안을 해소해 전기차  유저들이 안심하고 사용할 수 있는 환경을 마련해 나가고자 하는 데 주안점을 두겠다"고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>"유커 120만명 줄었다"...제주도 관광객 5.3% 뚝↓ - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:44 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 "유커 120만명 줄었다"...제주도 관광객 5.3% 뚝↓ 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 "유커 120만명 줄었다"...제주도 관광객 5.3% 뚝↓ 윤철수 기자 headlinejeju@headlinejeju.co.kr 승인 2017.08.01 12:42 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 7월 누적 관광객 861만명, 감소세 확대 항공편 한계, '내국인으로 상쇄' 역부족 올해 제주도를 찾은 관광객이 두달 연속 감소세를 보이며 감소폭이 점차 확대되는 추세를 보이고 있다.1일 제주특별자치도와 제주도관광협회 집계자료에 따르면 올해들어 7월까지 제주도 방문 내.외국인 관광객은 총 861만9182명으로, 지난해 같은기간 910만명과 비교해 5.3% 감소한 것으로 집계됐다.지난 6월말 기준 감소폭이 2.3% 수준이었더 것과 비교하면 한달새 감소폭이 두배 가량 높아졌다는 것이다.이러한 관광객 감소추이는 중국정부가 우리나라의 고고도 미사일 방어체계(사드, THAAD) 보복조치에 따른 한국관광 금지령으로 유커(遊客)의 발길이 끊긴 것이 결정적 이유이다.이 기간 제주방문 외국인 관광객은 총 89만6971명으로 지난해 같은기간 205만여명과 비교해 56.3% 감소했다. 이중 중국인관광객은 58만9138명에 그쳐, 지난해 같은기간 177만2955명과 비교해 무려 118만3817명이 줄어든 것으로 집계됐다.중국인관광시장에서만 120만명이 감소했다는 것이다.제주항과 서귀포항에 입항할 예정이던 국제크루즈 378회의 기항이 취소되면서 중화권 크루즈관광객의 발길은 4개월째 '0' 상태이다.제주국제공항을 기점으로 하는 중국 항공기 운항은 총 28개 도시 350편 중 248편이 운항 중단돼, 현재 8개 도시 102편만 운항되고 있는 실정이다. 사드보복 조치를 계기로 해 제주 관광당국이 해외시장 다변화를 위한 정책을 집중적으로 펴고 있으나, 동남아 지역 등 기타지역의 관광객은 28만명으로 11.1% 증가하는데 그쳤다.더욱이 일본인관광객은 2만7323명으로 지난해와 비교해 오히려 4.5% 감소한 것으로 나타났다.외국인 관광시장이 사실상 모두 고전을 면치 못하는 실정이다.문제는 이러한 외국인 시장의 위축은 이미 예견됐던 것이나, 이의 감소분을 상쇄시켜 줄 것이라 믿었던 내국인 시장이 생각만큼 활력화되지 않고 있다는데 있다.올해들어 7월까지 제주를 찾은 내국인관광객은 총 772만2211명으로, 지난해 같은기간과 비교해 9.6%인 67만명 가량이 증가했다.외국인시장에서 120만명이 줄어든 반면, 내국인시장에서는 이의 절반정도가 증가하면서 전체적 감소폭이 확대된 것이다.특히 내국인관광객의 경우 여름 관광시즌을 맞은 7월 들어서도 지난해와 비교해 4.8% 증가하는데 그쳤다.이는 제주기점 항공노선의 한계 때문으로 풀이된다. 내국인 잠재수요가 많다 하더라도 제주기점 항공편의 1일 최대 공급좌석은 한정돼 있기 때문이다.중화권 노선의 항공기 운항이 대거 중단된 상황임에도, 이의 여유분이 제주기점 노선에 투입되지 않고 있는 점도 한계로 작용한 것으로 보인다.한편 여름 최대 관광시즌인 8월을 맞아 오는 6일 제주항에는 모처럼 일본인 관광객 1500명을 태운 일본발 국제크루즈 코스타 빅토리아호가 입항할 예정이어서 주목된다. 이 국제크루즈는 이번 입항 외에도, 오는 11일 1250명을 태우고 2차 기항을 할 예정이다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 윤철수 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 5 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 6 세상을 웃게 만드는 친절 7 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 8 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 9 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 10 2022 Trans Jeju 국제 트레일러닝대회, 1박2일 대장정 마무리 1 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 2 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 3 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 4 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 5 지역발전의 초석이 되었으면 한다 6 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 7 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 8 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 9 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 10 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>흑돼지 돈까스 ‘봉유’ 제주도 유명 관광지 맛집 속속 ‘오픈’ - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 흑돼지 돈까스 ‘봉유’ 제주도 유명 관광지 맛집 속속 ‘오픈’ 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 경기사람들 흑돼지 돈까스 ‘봉유’ 제주도 유명 관광지 맛집 속속 ‘오픈’ 유지형 승인 2017.08.11 13:28 수정 2017.08.11 13:28 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × ▲ 제주 오설록 티뮤지엄에 이어 성산일출봉점 오픈 여름 휴가철이 한장인 가운데, 제주도는 지난해와 달리 중국인 관광객의 급감으로 국내 여행객들이 꾸준히 늘고 있다. 휴가철 중국 단체 관광객들로 인한 번잡함을 피할 수 있고 제주도는 국내 여행에 있어서는 자연 관광자원은 물론 유명 관광지 주변에 맛집이 즐비 하기 때문이다. 특히 제주도하면 떠오는 것이 흑돼지 요리라 할 수 있는데, 제주도 오설록 티뮤지엄 인근 흑돼지 돈까스 맛집으로 유명세를 타고 있는 봉유(봉YOU)가 서귀포시 성산읍 일출로 위치에 성산일출봉점 운영에 나서는 등 제주 유명관광지 중심으로 맛집 점포를 속속 오픈하고 있다. 봉유 관계자는 “오설록 티뮤지엄에 이어 성산일출봉까지 제주도 주요 관광지 중심으로 제주 고유의 맛을 전할 수 있게 되었다”며  “제주도에서만 느낄 수 있는 흑돼지와 제주 천연의 각종 해산물까지 신선한 재료를 기반으로 메뉴를 제공해 제주 관광지마다 맛집 전도사의 역할을 기대하고 있다. 이를 위해 추가적으로 가족동반(4인이상) 방문시 음료 커피 무제한 제공 행사까지 병행하고 있다”고 전했다. 현재 봉유 성산일출봉점은 자체 특제소스를 기반으로한 제주 흑돼지로 만든 돈까스가 베스트 메뉴로  흑돼지 야채볶음, 흑돼지 불짬봉, 전복나가사키짬뽕도 눈길을 끌고 있다. 현재 봉유는 돈까스 하나만을 고집해 메뉴 연구 및 개발을 진행해 방송에서도 제주도 오설록 맛집으로 소개된 바 있으며, 제주도 산지에서 공수해온 흑돼지를 비롯해 전복 및 각종 해산물을 이용한 다양한 음식을 맛볼 수 있다. 특히 싱싱한 생물을 바로 요리해 신선함과 맛에 대한 신뢰를 쌓아 가고 있다. 한편 봉유는 오설록 티뮤지엄, 성산일출봉점에 이어서 제주도 주요 관광지 중심으로 매장을 확대해 나간다는 방침이다. /온라인뉴스팀 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 유지형 peachecho@naver.com 인천일보TV 시사쇼 '총선 뒤풀이' 인천일보TV 시사쇼, 4·15 총선 인천 판세분석 [오늘의 경기 뉴스] 2019년 11월 6일(수) 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>'관광농원 인·허가 받아주겠다' 개발업자에게 돈 받은 전직 제주도의원 구속 검색 2022-10-11 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR '관광농원 인·허가 받아주겠다' 개발업자에게 돈 받은 전직 제주도의원 구속 2017-08-16 15:22:18 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=온라인뉴스팀] 제주지검은 16일 개발업자에게 인·허가 등 민원을 해결해 주는 대가로 6000만원의 돈을 받은 전직 도의원 A(61)씨를 사기 및 알선수재 혐의로 구속했다고 밝혔다.A씨는 관광농원 개발업자에게 접근해 제주도로부터 상수도관 연결 허가를 받아 주겠다며 그 대가로 6000만원을 받은 혐의를 받고 있다.검찰은 A씨가 개발업자의 민원 해결을 위해 어떠한 영향력을 행사했고, 받은 돈을 어떻게 사용했는지 등에 대해 조사 중이다.[미디어펜=온라인뉴스팀] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 중국 관광객 빠졌지만 일본 관광객 3.9% 증가 검색 2022-10-11 화요일 홈 경제 경제일반 산업 자동차/항공 조선/철강 화학/에너지 제약/바이오 중기 금융 증권 IT 전자 게임 유통 부동산 칼럼 정치 사회 연예 최신 영화 연예 스포츠 스포츠종합 축구 야구 농구 골프 여행 문화 기업PR 제주도, 중국 관광객 빠졌지만 일본 관광객 3.9% 증가 2017-08-11 11:36:57 | 온라인뉴스팀 기자 | office@mediapen.com 페이스북 트위터 카카오톡 프린트 가 + 가 - [미디어펜=온라인뉴스팀]제주특별자치도는 올해 들어 지난 10일까지 제주를 찾은 일본인 관광객이 3만800명으로 지난해 같은 기간 2만9649명보다 3.9% 늘었다고 11일 밝혔다.일본인 관광객 수는 지난 2010년 18만7790명으로 사상 최고를 기록한 뒤 2011년 17만3700명으로 7.5% 줄었다. 2012년에 18만357명으로 증가했으나 2013년 12만8879명으로 28.5% 감소한 바 있다.이어 2014년 9만6519명, 2015년 5만9223명, 2016년 4만7997명으로 해마다 관광객 수가 줄어들었다.하지만 지난해 중국이 한류금지령과 한국 단체 관광 금지령을 내리면서 중국인 관광객이 대폭 줄었고, 이후 일본인 관광객이 점차 늘어나기 시작했다.제주도는 일본 관광시장 확대 노력이 열매를 맺는 것으로 보고, 다양한 마케팅 활동에 주력할 예정이다.[미디어펜=온라인뉴스팀] ▶다른기사보기 &lt;저작권자 © 미디어펜 무단전재 및 재배포금지&gt; 회사소개 연혁 광고·제휴문의 청소년보호정책 이메일무단수집거부 인터넷신문 ( 윤리강령 | 심의규정 ) 서울특별시 종로구 새문안로3길 30 세종로대우빌딩 복합동 508호 전화번호 : 02)6241-7700 팩스 : 02)6241-7708 정기간행물ㆍ등록번호 : 서울 아 00574 등록일.발행일 2008.5.8 발행인 : 이의춘 편집인·편집국장 : 김태균 청소년보호책임자:김사성 Copyright © 2013 미디어펜. All rights reserved.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +554,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,9 +575,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -428,7 +584,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -439,7 +595,331 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
